--- a/data/Historico de Robos Colgate.xlsx
+++ b/data/Historico de Robos Colgate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elthon Daniel Rivas\OneDrive - ILSP GLOBAL SEGURIDAD PRIVADA SAPI DE C.V\Documentos\Areas de Trabajo\Inteligencia de Negocios\Aplicaciones\Productivo\RiesgoColgate\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5A2614-E208-4E06-AA7D-EC8956C6ACB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D16DB6-8A73-45BC-A835-8166EF8C899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F990D130-DE1D-4C88-8964-88BAD76D8B5D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="590">
   <si>
     <t>Autopista México - Puebla</t>
   </si>
@@ -535,9 +535,6 @@
   </si>
   <si>
     <t>JASSO LOGISTIC</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t xml:space="preserve"> CEDIS WALMART LA LUZ CUATITLAN</t>
@@ -2399,7 +2396,7 @@
   <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2412,70 +2409,70 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="U1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="V1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -2486,7 +2483,7 @@
         <v>411634956</v>
       </c>
       <c r="C2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -2501,10 +2498,10 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -2513,10 +2510,10 @@
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>51</v>
@@ -2540,10 +2537,10 @@
         <v>18</v>
       </c>
       <c r="U2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2554,7 +2551,7 @@
         <v>421675932</v>
       </c>
       <c r="C3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -2569,10 +2566,10 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -2581,10 +2578,10 @@
         <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>55</v>
@@ -2608,10 +2605,10 @@
         <v>5</v>
       </c>
       <c r="U3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -2622,7 +2619,7 @@
         <v>421698921</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -2637,10 +2634,10 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
@@ -2649,10 +2646,10 @@
         <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>1</v>
@@ -2676,10 +2673,10 @@
         <v>5</v>
       </c>
       <c r="U4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2690,7 +2687,7 @@
         <v>421723027</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2705,10 +2702,10 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J5" t="s">
         <v>5</v>
@@ -2717,10 +2714,10 @@
         <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>51</v>
@@ -2744,10 +2741,10 @@
         <v>18</v>
       </c>
       <c r="U5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -2758,7 +2755,7 @@
         <v>431776799</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2773,10 +2770,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J6" t="s">
         <v>5</v>
@@ -2785,7 +2782,7 @@
         <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>100</v>
@@ -2812,10 +2809,10 @@
         <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -2826,7 +2823,7 @@
         <v>431781712</v>
       </c>
       <c r="C7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -2841,10 +2838,10 @@
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
@@ -2853,7 +2850,7 @@
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>100</v>
@@ -2880,7 +2877,7 @@
         <v>15</v>
       </c>
       <c r="U7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V7" t="s">
         <v>0</v>
@@ -2894,7 +2891,7 @@
         <v>431791702</v>
       </c>
       <c r="C8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -2909,10 +2906,10 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
@@ -2921,7 +2918,7 @@
         <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>100</v>
@@ -2948,7 +2945,7 @@
         <v>18</v>
       </c>
       <c r="U8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V8" t="s">
         <v>0</v>
@@ -2962,7 +2959,7 @@
         <v>431800319</v>
       </c>
       <c r="C9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -2980,7 +2977,7 @@
         <v>125</v>
       </c>
       <c r="I9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J9" t="s">
         <v>5</v>
@@ -2989,7 +2986,7 @@
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>100</v>
@@ -3016,10 +3013,10 @@
         <v>19</v>
       </c>
       <c r="U9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -3030,7 +3027,7 @@
         <v>441854006</v>
       </c>
       <c r="C10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D10" t="s">
         <v>47</v>
@@ -3048,7 +3045,7 @@
         <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J10" t="s">
         <v>5</v>
@@ -3057,10 +3054,10 @@
         <v>4</v>
       </c>
       <c r="L10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>1</v>
@@ -3084,10 +3081,10 @@
         <v>6</v>
       </c>
       <c r="U10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -3098,7 +3095,7 @@
         <v>441877183</v>
       </c>
       <c r="C11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -3113,10 +3110,10 @@
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J11" t="s">
         <v>5</v>
@@ -3125,10 +3122,10 @@
         <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>51</v>
@@ -3152,10 +3149,10 @@
         <v>6</v>
       </c>
       <c r="U11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -3166,7 +3163,7 @@
         <v>441877244</v>
       </c>
       <c r="C12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -3181,10 +3178,10 @@
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J12" t="s">
         <v>5</v>
@@ -3193,10 +3190,10 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>51</v>
@@ -3220,10 +3217,10 @@
         <v>6</v>
       </c>
       <c r="U12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -3234,7 +3231,7 @@
         <v>451929922</v>
       </c>
       <c r="C13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
@@ -3249,22 +3246,22 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J13" t="s">
         <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>51</v>
@@ -3288,7 +3285,7 @@
         <v>5</v>
       </c>
       <c r="U13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V13" t="s">
         <v>0</v>
@@ -3302,7 +3299,7 @@
         <v>451930318</v>
       </c>
       <c r="C14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -3320,7 +3317,7 @@
         <v>125</v>
       </c>
       <c r="I14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J14" t="s">
         <v>5</v>
@@ -3329,10 +3326,10 @@
         <v>4</v>
       </c>
       <c r="L14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>51</v>
@@ -3356,10 +3353,10 @@
         <v>6</v>
       </c>
       <c r="U14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -3370,7 +3367,7 @@
         <v>451932225</v>
       </c>
       <c r="C15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -3385,10 +3382,10 @@
         <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J15" t="s">
         <v>5</v>
@@ -3397,10 +3394,10 @@
         <v>42</v>
       </c>
       <c r="L15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>24</v>
@@ -3424,10 +3421,10 @@
         <v>6</v>
       </c>
       <c r="U15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -3438,7 +3435,7 @@
         <v>462003448</v>
       </c>
       <c r="C16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -3456,7 +3453,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J16" t="s">
         <v>5</v>
@@ -3465,7 +3462,7 @@
         <v>4</v>
       </c>
       <c r="L16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>93</v>
@@ -3492,7 +3489,7 @@
         <v>13</v>
       </c>
       <c r="U16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V16" t="s">
         <v>0</v>
@@ -3506,7 +3503,7 @@
         <v>462020819</v>
       </c>
       <c r="C17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -3521,10 +3518,10 @@
         <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J17" t="s">
         <v>5</v>
@@ -3533,7 +3530,7 @@
         <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>93</v>
@@ -3560,10 +3557,10 @@
         <v>7</v>
       </c>
       <c r="U17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -3574,7 +3571,7 @@
         <v>472137598</v>
       </c>
       <c r="C18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -3592,7 +3589,7 @@
         <v>125</v>
       </c>
       <c r="I18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J18" t="s">
         <v>5</v>
@@ -3601,7 +3598,7 @@
         <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>80</v>
@@ -3628,10 +3625,10 @@
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -3642,7 +3639,7 @@
         <v>482221436</v>
       </c>
       <c r="C19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D19" t="s">
         <v>47</v>
@@ -3657,10 +3654,10 @@
         <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J19" t="s">
         <v>5</v>
@@ -3696,10 +3693,10 @@
         <v>1</v>
       </c>
       <c r="U19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="V19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -3710,7 +3707,7 @@
         <v>482254889</v>
       </c>
       <c r="C20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -3725,10 +3722,10 @@
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J20" t="s">
         <v>5</v>
@@ -3737,7 +3734,7 @@
         <v>31</v>
       </c>
       <c r="L20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>66</v>
@@ -3764,10 +3761,10 @@
         <v>6</v>
       </c>
       <c r="U20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V20" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -3778,7 +3775,7 @@
         <v>492350113</v>
       </c>
       <c r="C21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -3793,10 +3790,10 @@
         <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J21" t="s">
         <v>5</v>
@@ -3832,10 +3829,10 @@
         <v>19</v>
       </c>
       <c r="U21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="V21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -3843,10 +3840,10 @@
         <v>44115</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D22" t="s">
         <v>47</v>
@@ -3864,7 +3861,7 @@
         <v>95</v>
       </c>
       <c r="I22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J22" t="s">
         <v>5</v>
@@ -3873,10 +3870,10 @@
         <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>29</v>
@@ -3900,10 +3897,10 @@
         <v>21</v>
       </c>
       <c r="U22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="V22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3911,10 +3908,10 @@
         <v>44119</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D23" t="s">
         <v>47</v>
@@ -3929,10 +3926,10 @@
         <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J23" t="s">
         <v>5</v>
@@ -3941,10 +3938,10 @@
         <v>42</v>
       </c>
       <c r="L23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>24</v>
@@ -3968,10 +3965,10 @@
         <v>4</v>
       </c>
       <c r="U23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -3979,10 +3976,10 @@
         <v>44136</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -4000,7 +3997,7 @@
         <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J24" t="s">
         <v>5</v>
@@ -4009,10 +4006,10 @@
         <v>4</v>
       </c>
       <c r="L24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>29</v>
@@ -4036,10 +4033,10 @@
         <v>13</v>
       </c>
       <c r="U24" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="V24" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -4047,10 +4044,10 @@
         <v>44145</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -4068,7 +4065,7 @@
         <v>125</v>
       </c>
       <c r="I25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J25" t="s">
         <v>5</v>
@@ -4077,10 +4074,10 @@
         <v>31</v>
       </c>
       <c r="L25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>1</v>
@@ -4104,7 +4101,7 @@
         <v>23</v>
       </c>
       <c r="U25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V25" t="s">
         <v>79</v>
@@ -4115,10 +4112,10 @@
         <v>44150</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -4133,10 +4130,10 @@
         <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J26" t="s">
         <v>5</v>
@@ -4145,10 +4142,10 @@
         <v>31</v>
       </c>
       <c r="L26" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>29</v>
@@ -4172,10 +4169,10 @@
         <v>10</v>
       </c>
       <c r="U26" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
@@ -4183,10 +4180,10 @@
         <v>44158</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D27" t="s">
         <v>47</v>
@@ -4201,10 +4198,10 @@
         <v>21</v>
       </c>
       <c r="H27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J27" t="s">
         <v>5</v>
@@ -4216,7 +4213,7 @@
         <v>52</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>142</v>
@@ -4240,10 +4237,10 @@
         <v>2</v>
       </c>
       <c r="U27" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -4251,10 +4248,10 @@
         <v>44161</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -4269,10 +4266,10 @@
         <v>21</v>
       </c>
       <c r="H28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J28" t="s">
         <v>5</v>
@@ -4281,10 +4278,10 @@
         <v>52</v>
       </c>
       <c r="L28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>24</v>
@@ -4308,7 +4305,7 @@
         <v>3</v>
       </c>
       <c r="U28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V28" t="s">
         <v>116</v>
@@ -4319,10 +4316,10 @@
         <v>44175</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -4337,10 +4334,10 @@
         <v>21</v>
       </c>
       <c r="H29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I29" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J29" t="s">
         <v>5</v>
@@ -4349,10 +4346,10 @@
         <v>31</v>
       </c>
       <c r="L29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>24</v>
@@ -4376,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="U29" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V29" t="s">
         <v>116</v>
@@ -4387,10 +4384,10 @@
         <v>44181</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -4408,7 +4405,7 @@
         <v>63</v>
       </c>
       <c r="I30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J30" t="s">
         <v>5</v>
@@ -4417,10 +4414,10 @@
         <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>51</v>
@@ -4444,10 +4441,10 @@
         <v>4</v>
       </c>
       <c r="U30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
@@ -4455,10 +4452,10 @@
         <v>44183</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -4473,10 +4470,10 @@
         <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J31" t="s">
         <v>5</v>
@@ -4485,10 +4482,10 @@
         <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>55</v>
@@ -4512,10 +4509,10 @@
         <v>21</v>
       </c>
       <c r="U31" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -4523,10 +4520,10 @@
         <v>44192</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
@@ -4544,7 +4541,7 @@
         <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J32" t="s">
         <v>5</v>
@@ -4553,10 +4550,10 @@
         <v>4</v>
       </c>
       <c r="L32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>29</v>
@@ -4580,7 +4577,7 @@
         <v>13</v>
       </c>
       <c r="U32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V32" t="s">
         <v>116</v>
@@ -4594,7 +4591,7 @@
         <v>512656625</v>
       </c>
       <c r="C33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -4609,10 +4606,10 @@
         <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J33" t="s">
         <v>5</v>
@@ -4621,10 +4618,10 @@
         <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>51</v>
@@ -4648,10 +4645,10 @@
         <v>5</v>
       </c>
       <c r="U33" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
@@ -4662,7 +4659,7 @@
         <v>512655074</v>
       </c>
       <c r="C34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -4680,7 +4677,7 @@
         <v>84</v>
       </c>
       <c r="I34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J34" t="s">
         <v>18</v>
@@ -4689,10 +4686,10 @@
         <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>51</v>
@@ -4716,10 +4713,10 @@
         <v>10</v>
       </c>
       <c r="U34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="V34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
@@ -4730,7 +4727,7 @@
         <v>573038808</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>47</v>
@@ -4742,13 +4739,13 @@
         <v>10</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>5</v>
@@ -4757,10 +4754,10 @@
         <v>17</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N35" s="6" t="s">
         <v>29</v>
@@ -4784,10 +4781,10 @@
         <v>9</v>
       </c>
       <c r="U35" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
@@ -4798,7 +4795,7 @@
         <v>522699174</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>11</v>
@@ -4813,10 +4810,10 @@
         <v>21</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J36" s="15" t="s">
         <v>5</v>
@@ -4825,10 +4822,10 @@
         <v>31</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N36" s="6" t="s">
         <v>1</v>
@@ -4852,7 +4849,7 @@
         <v>3</v>
       </c>
       <c r="U36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V36" t="s">
         <v>116</v>
@@ -4866,7 +4863,7 @@
         <v>522738498</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>11</v>
@@ -4878,13 +4875,13 @@
         <v>10</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>5</v>
@@ -4893,10 +4890,10 @@
         <v>31</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N37" s="6" t="s">
         <v>24</v>
@@ -4920,10 +4917,10 @@
         <v>22</v>
       </c>
       <c r="U37" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -4934,7 +4931,7 @@
         <v>532753974</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>47</v>
@@ -4949,10 +4946,10 @@
         <v>21</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J38" s="15" t="s">
         <v>5</v>
@@ -4961,7 +4958,7 @@
         <v>4</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M38" s="6" t="s">
         <v>100</v>
@@ -4988,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="U38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V38" t="s">
         <v>86</v>
@@ -5002,7 +4999,7 @@
         <v>532767483</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>11</v>
@@ -5020,7 +5017,7 @@
         <v>89</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J39" s="15" t="s">
         <v>5</v>
@@ -5029,7 +5026,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M39" s="6" t="s">
         <v>100</v>
@@ -5056,10 +5053,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V39" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -5070,7 +5067,7 @@
         <v>532780107</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>11</v>
@@ -5082,13 +5079,13 @@
         <v>9</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J40" s="15" t="s">
         <v>5</v>
@@ -5097,7 +5094,7 @@
         <v>17</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M40" s="6" t="s">
         <v>100</v>
@@ -5124,7 +5121,7 @@
         <v>13</v>
       </c>
       <c r="U40" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V40" t="s">
         <v>86</v>
@@ -5138,7 +5135,7 @@
         <v>542848062</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>11</v>
@@ -5156,7 +5153,7 @@
         <v>7</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J41" s="15" t="s">
         <v>5</v>
@@ -5165,10 +5162,10 @@
         <v>42</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N41" s="6" t="s">
         <v>51</v>
@@ -5192,10 +5189,10 @@
         <v>8</v>
       </c>
       <c r="U41" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V41" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -5206,7 +5203,7 @@
         <v>542859488</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>47</v>
@@ -5221,10 +5218,10 @@
         <v>21</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J42" s="15" t="s">
         <v>5</v>
@@ -5233,10 +5230,10 @@
         <v>17</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N42" s="6" t="s">
         <v>1</v>
@@ -5260,10 +5257,10 @@
         <v>14</v>
       </c>
       <c r="U42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
@@ -5274,7 +5271,7 @@
         <v>542863160</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>11</v>
@@ -5289,10 +5286,10 @@
         <v>21</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J43" s="15" t="s">
         <v>5</v>
@@ -5301,10 +5298,10 @@
         <v>31</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>51</v>
@@ -5328,10 +5325,10 @@
         <v>7</v>
       </c>
       <c r="U43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V43" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
@@ -5342,7 +5339,7 @@
         <v>542867022</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>11</v>
@@ -5360,7 +5357,7 @@
         <v>63</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>5</v>
@@ -5369,10 +5366,10 @@
         <v>4</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N44" s="6" t="s">
         <v>24</v>
@@ -5396,10 +5393,10 @@
         <v>16</v>
       </c>
       <c r="U44" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -5410,7 +5407,7 @@
         <v>542880915</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>47</v>
@@ -5428,7 +5425,7 @@
         <v>125</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>5</v>
@@ -5437,10 +5434,10 @@
         <v>4</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N45" s="6" t="s">
         <v>51</v>
@@ -5464,10 +5461,10 @@
         <v>7</v>
       </c>
       <c r="U45" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
@@ -5478,7 +5475,7 @@
         <v>542880491</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>11</v>
@@ -5496,7 +5493,7 @@
         <v>84</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J46" s="15" t="s">
         <v>18</v>
@@ -5505,10 +5502,10 @@
         <v>42</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N46" s="6" t="s">
         <v>51</v>
@@ -5532,10 +5529,10 @@
         <v>8</v>
       </c>
       <c r="U46" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V46" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
@@ -5546,7 +5543,7 @@
         <v>542880882</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>11</v>
@@ -5558,13 +5555,13 @@
         <v>10</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>84</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J47" s="15" t="s">
         <v>18</v>
@@ -5573,10 +5570,10 @@
         <v>42</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N47" s="6" t="s">
         <v>51</v>
@@ -5600,10 +5597,10 @@
         <v>8</v>
       </c>
       <c r="U47" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="V47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
@@ -5614,7 +5611,7 @@
         <v>552899971</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>11</v>
@@ -5632,19 +5629,19 @@
         <v>72</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J48" s="15" t="s">
         <v>5</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N48" s="6" t="s">
         <v>24</v>
@@ -5668,10 +5665,10 @@
         <v>22</v>
       </c>
       <c r="U48" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
@@ -5682,7 +5679,7 @@
         <v>552908754</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>11</v>
@@ -5694,13 +5691,13 @@
         <v>9</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>58</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J49" s="15" t="s">
         <v>5</v>
@@ -5709,10 +5706,10 @@
         <v>4</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N49" s="6" t="s">
         <v>1</v>
@@ -5736,7 +5733,7 @@
         <v>5</v>
       </c>
       <c r="U49" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V49" t="s">
         <v>0</v>
@@ -5750,7 +5747,7 @@
         <v>552915691</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>47</v>
@@ -5768,7 +5765,7 @@
         <v>130</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J50" s="15" t="s">
         <v>5</v>
@@ -5777,10 +5774,10 @@
         <v>31</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N50" s="6" t="s">
         <v>24</v>
@@ -5804,10 +5801,10 @@
         <v>6</v>
       </c>
       <c r="U50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V50" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
@@ -5818,7 +5815,7 @@
         <v>562963377</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>11</v>
@@ -5833,10 +5830,10 @@
         <v>21</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J51" s="15" t="s">
         <v>5</v>
@@ -5845,7 +5842,7 @@
         <v>31</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M51" s="6" t="s">
         <v>93</v>
@@ -5872,10 +5869,10 @@
         <v>8</v>
       </c>
       <c r="U51" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
@@ -5886,7 +5883,7 @@
         <v>562973220</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>11</v>
@@ -5904,7 +5901,7 @@
         <v>27</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J52" s="15" t="s">
         <v>5</v>
@@ -5913,7 +5910,7 @@
         <v>4</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M52" s="6" t="s">
         <v>93</v>
@@ -5940,7 +5937,7 @@
         <v>12</v>
       </c>
       <c r="U52" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V52" t="s">
         <v>86</v>
@@ -5954,7 +5951,7 @@
         <v>563002578</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>47</v>
@@ -5966,13 +5963,13 @@
         <v>10</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H53" s="16" t="s">
         <v>58</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>5</v>
@@ -5981,7 +5978,7 @@
         <v>42</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M53" s="6" t="s">
         <v>93</v>
@@ -6008,10 +6005,10 @@
         <v>20</v>
       </c>
       <c r="U53" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V53" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
@@ -6022,7 +6019,7 @@
         <v>563014412</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>11</v>
@@ -6034,13 +6031,13 @@
         <v>9</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>27</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>5</v>
@@ -6049,7 +6046,7 @@
         <v>4</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M54" s="6" t="s">
         <v>93</v>
@@ -6076,10 +6073,10 @@
         <v>12</v>
       </c>
       <c r="U54" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V54" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
@@ -6090,7 +6087,7 @@
         <v>573038169</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>11</v>
@@ -6105,10 +6102,10 @@
         <v>8</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>5</v>
@@ -6144,7 +6141,7 @@
         <v>2</v>
       </c>
       <c r="U55" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V55" t="s">
         <v>116</v>
@@ -6158,7 +6155,7 @@
         <v>583133623</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>11</v>
@@ -6176,7 +6173,7 @@
         <v>27</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>5</v>
@@ -6185,7 +6182,7 @@
         <v>4</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M56" s="6" t="s">
         <v>66</v>
@@ -6212,10 +6209,10 @@
         <v>9</v>
       </c>
       <c r="U56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V56" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
@@ -6226,7 +6223,7 @@
         <v>583140622</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>11</v>
@@ -6244,7 +6241,7 @@
         <v>27</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>5</v>
@@ -6253,7 +6250,7 @@
         <v>4</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M57" s="6" t="s">
         <v>66</v>
@@ -6280,10 +6277,10 @@
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
@@ -6294,7 +6291,7 @@
         <v>583171272</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>11</v>
@@ -6312,16 +6309,16 @@
         <v>63</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>66</v>
@@ -6348,10 +6345,10 @@
         <v>10</v>
       </c>
       <c r="U58" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V58" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
@@ -6362,7 +6359,7 @@
         <v>593197096</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>47</v>
@@ -6377,10 +6374,10 @@
         <v>21</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>5</v>
@@ -6389,7 +6386,7 @@
         <v>17</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M59" s="6" t="s">
         <v>40</v>
@@ -6416,10 +6413,10 @@
         <v>18</v>
       </c>
       <c r="U59" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V59" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
@@ -6430,7 +6427,7 @@
         <v>593220435</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>47</v>
@@ -6448,7 +6445,7 @@
         <v>125</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>5</v>
@@ -6457,7 +6454,7 @@
         <v>4</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M60" s="6" t="s">
         <v>40</v>
@@ -6484,10 +6481,10 @@
         <v>9</v>
       </c>
       <c r="U60" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V60" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
@@ -6498,7 +6495,7 @@
         <v>593233364</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>47</v>
@@ -6516,7 +6513,7 @@
         <v>130</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>5</v>
@@ -6552,10 +6549,10 @@
         <v>8</v>
       </c>
       <c r="U61" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
@@ -6563,7 +6560,7 @@
         <v>44480.48846064815</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>12</v>
@@ -6581,10 +6578,10 @@
         <v>21</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>5</v>
@@ -6593,10 +6590,10 @@
         <v>42</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N62" s="6" t="s">
         <v>142</v>
@@ -6620,7 +6617,7 @@
         <v>15</v>
       </c>
       <c r="U62" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V62" t="s">
         <v>0</v>
@@ -6631,10 +6628,10 @@
         <v>44482.028831018521</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>47</v>
@@ -6652,7 +6649,7 @@
         <v>84</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>18</v>
@@ -6661,10 +6658,10 @@
         <v>106</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N63" s="6" t="s">
         <v>51</v>
@@ -6688,10 +6685,10 @@
         <v>2</v>
       </c>
       <c r="U63" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
@@ -6699,7 +6696,7 @@
         <v>44482.436886574076</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>22</v>
@@ -6717,10 +6714,10 @@
         <v>21</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>5</v>
@@ -6729,10 +6726,10 @@
         <v>17</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N64" s="6" t="s">
         <v>51</v>
@@ -6756,10 +6753,10 @@
         <v>12</v>
       </c>
       <c r="U64" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V64" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
@@ -6767,7 +6764,7 @@
         <v>44485.271921296298</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>12</v>
@@ -6785,10 +6782,10 @@
         <v>21</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>5</v>
@@ -6800,7 +6797,7 @@
         <v>74</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N65" s="6" t="s">
         <v>15</v>
@@ -6824,7 +6821,7 @@
         <v>8</v>
       </c>
       <c r="U65" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V65" t="s">
         <v>151</v>
@@ -6835,7 +6832,7 @@
         <v>44511</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>12</v>
@@ -6853,10 +6850,10 @@
         <v>21</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>5</v>
@@ -6865,10 +6862,10 @@
         <v>4</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N66" s="6" t="s">
         <v>24</v>
@@ -6892,10 +6889,10 @@
         <v>8</v>
       </c>
       <c r="U66" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V66" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
@@ -6903,7 +6900,7 @@
         <v>44517</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>12</v>
@@ -6921,10 +6918,10 @@
         <v>8</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>5</v>
@@ -6933,10 +6930,10 @@
         <v>31</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N67" s="6" t="s">
         <v>51</v>
@@ -6960,10 +6957,10 @@
         <v>5</v>
       </c>
       <c r="U67" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
@@ -6971,7 +6968,7 @@
         <v>44523</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -6992,19 +6989,19 @@
         <v>27</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N68" s="6" t="s">
         <v>1</v>
@@ -7028,7 +7025,7 @@
         <v>6</v>
       </c>
       <c r="U68" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V68" t="s">
         <v>0</v>
@@ -7039,7 +7036,7 @@
         <v>44526</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>12</v>
@@ -7060,7 +7057,7 @@
         <v>58</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>5</v>
@@ -7069,10 +7066,10 @@
         <v>31</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N69" s="6" t="s">
         <v>55</v>
@@ -7096,10 +7093,10 @@
         <v>0</v>
       </c>
       <c r="U69" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
@@ -7107,7 +7104,7 @@
         <v>44530</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>12</v>
@@ -7128,7 +7125,7 @@
         <v>125</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>5</v>
@@ -7137,10 +7134,10 @@
         <v>31</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N70" s="6" t="s">
         <v>1</v>
@@ -7164,10 +7161,10 @@
         <v>4</v>
       </c>
       <c r="U70" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V70" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
@@ -7175,7 +7172,7 @@
         <v>44533</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>12</v>
@@ -7196,19 +7193,19 @@
         <v>72</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J71" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N71" s="6" t="s">
         <v>55</v>
@@ -7232,10 +7229,10 @@
         <v>18</v>
       </c>
       <c r="U71" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
@@ -7243,7 +7240,7 @@
         <v>44544</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>12</v>
@@ -7261,22 +7258,22 @@
         <v>21</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N72" s="6" t="s">
         <v>1</v>
@@ -7300,10 +7297,10 @@
         <v>19</v>
       </c>
       <c r="U72" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V72" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
@@ -7311,7 +7308,7 @@
         <v>44546</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>12</v>
@@ -7332,7 +7329,7 @@
         <v>125</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>5</v>
@@ -7341,10 +7338,10 @@
         <v>4</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N73" s="6" t="s">
         <v>24</v>
@@ -7368,10 +7365,10 @@
         <v>6</v>
       </c>
       <c r="U73" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
@@ -7397,22 +7394,22 @@
         <v>21</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N74" s="6" t="s">
         <v>142</v>
@@ -7436,10 +7433,10 @@
         <v>22</v>
       </c>
       <c r="U74" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
@@ -7468,7 +7465,7 @@
         <v>27</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>5</v>
@@ -7477,10 +7474,10 @@
         <v>4</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N75" s="6" t="s">
         <v>55</v>
@@ -7504,10 +7501,10 @@
         <v>5</v>
       </c>
       <c r="U75" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="V75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
@@ -7533,10 +7530,10 @@
         <v>21</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>5</v>
@@ -7545,10 +7542,10 @@
         <v>4</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N76" s="6" t="s">
         <v>142</v>
@@ -7572,10 +7569,10 @@
         <v>6</v>
       </c>
       <c r="U76" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
@@ -7604,7 +7601,7 @@
         <v>130</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>5</v>
@@ -7613,10 +7610,10 @@
         <v>31</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N77" s="6" t="s">
         <v>15</v>
@@ -7640,10 +7637,10 @@
         <v>21</v>
       </c>
       <c r="U77" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V77" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
@@ -7669,10 +7666,10 @@
         <v>8</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J78" s="5" t="s">
         <v>5</v>
@@ -7681,10 +7678,10 @@
         <v>42</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N78" s="6" t="s">
         <v>51</v>
@@ -7708,10 +7705,10 @@
         <v>10</v>
       </c>
       <c r="U78" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V78" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
@@ -7737,10 +7734,10 @@
         <v>21</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>5</v>
@@ -7749,10 +7746,10 @@
         <v>4</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N79" s="6" t="s">
         <v>24</v>
@@ -7776,10 +7773,10 @@
         <v>15</v>
       </c>
       <c r="U79" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V79" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
@@ -7805,10 +7802,10 @@
         <v>8</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J80" s="5" t="s">
         <v>5</v>
@@ -7817,7 +7814,7 @@
         <v>31</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M80" s="6" t="s">
         <v>100</v>
@@ -7844,10 +7841,10 @@
         <v>20</v>
       </c>
       <c r="U80" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V80" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
@@ -7876,7 +7873,7 @@
         <v>63</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>5</v>
@@ -7885,7 +7882,7 @@
         <v>4</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M81" s="6" t="s">
         <v>100</v>
@@ -7912,10 +7909,10 @@
         <v>5</v>
       </c>
       <c r="U81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V81" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
@@ -7941,10 +7938,10 @@
         <v>21</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J82" s="5" t="s">
         <v>5</v>
@@ -7980,10 +7977,10 @@
         <v>22</v>
       </c>
       <c r="U82" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V82" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
@@ -8009,10 +8006,10 @@
         <v>21</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>5</v>
@@ -8021,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M83" s="6" t="s">
         <v>100</v>
@@ -8048,10 +8045,10 @@
         <v>21</v>
       </c>
       <c r="U83" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V83" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
@@ -8080,7 +8077,7 @@
         <v>27</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>5</v>
@@ -8089,7 +8086,7 @@
         <v>4</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M84" s="6" t="s">
         <v>100</v>
@@ -8116,7 +8113,7 @@
         <v>19</v>
       </c>
       <c r="U84" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V84" t="s">
         <v>0</v>
@@ -8145,10 +8142,10 @@
         <v>21</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J85" s="5" t="s">
         <v>5</v>
@@ -8157,10 +8154,10 @@
         <v>31</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N85" s="6" t="s">
         <v>142</v>
@@ -8184,10 +8181,10 @@
         <v>0</v>
       </c>
       <c r="U85" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="V85" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
@@ -8213,10 +8210,10 @@
         <v>21</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>5</v>
@@ -8225,10 +8222,10 @@
         <v>42</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N86" s="6" t="s">
         <v>1</v>
@@ -8252,10 +8249,10 @@
         <v>21</v>
       </c>
       <c r="U86" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V86" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
@@ -8284,7 +8281,7 @@
         <v>63</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>5</v>
@@ -8293,10 +8290,10 @@
         <v>4</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N87" s="6" t="s">
         <v>1</v>
@@ -8320,10 +8317,10 @@
         <v>14</v>
       </c>
       <c r="U87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V87" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
@@ -8352,7 +8349,7 @@
         <v>7</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>5</v>
@@ -8361,10 +8358,10 @@
         <v>4</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N88" s="6" t="s">
         <v>24</v>
@@ -8388,10 +8385,10 @@
         <v>5</v>
       </c>
       <c r="U88" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="V88" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
@@ -8417,10 +8414,10 @@
         <v>21</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>5</v>
@@ -8429,10 +8426,10 @@
         <v>31</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N89" s="6" t="s">
         <v>55</v>
@@ -8456,10 +8453,10 @@
         <v>6</v>
       </c>
       <c r="U89" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V89" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
@@ -8467,7 +8464,7 @@
         <v>44686</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>12</v>
@@ -8488,7 +8485,7 @@
         <v>130</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>5</v>
@@ -8497,10 +8494,10 @@
         <v>31</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N90" s="6" t="s">
         <v>24</v>
@@ -8524,10 +8521,10 @@
         <v>19</v>
       </c>
       <c r="U90" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V90" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
@@ -8535,7 +8532,7 @@
         <v>44690</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>12</v>
@@ -8553,10 +8550,10 @@
         <v>21</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>5</v>
@@ -8565,10 +8562,10 @@
         <v>42</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N91" s="6" t="s">
         <v>142</v>
@@ -8592,10 +8589,10 @@
         <v>0</v>
       </c>
       <c r="U91" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V91" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
@@ -8603,7 +8600,7 @@
         <v>44693</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>12</v>
@@ -8624,7 +8621,7 @@
         <v>125</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>5</v>
@@ -8633,10 +8630,10 @@
         <v>4</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N92" s="6" t="s">
         <v>24</v>
@@ -8660,10 +8657,10 @@
         <v>5</v>
       </c>
       <c r="U92" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="V92" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
@@ -8671,10 +8668,10 @@
         <v>44694</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>11</v>
@@ -8692,7 +8689,7 @@
         <v>84</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J93" s="5" t="s">
         <v>18</v>
@@ -8701,10 +8698,10 @@
         <v>106</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N93" s="6" t="s">
         <v>55</v>
@@ -8728,10 +8725,10 @@
         <v>4</v>
       </c>
       <c r="U93" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V93" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
@@ -8739,7 +8736,7 @@
         <v>44708</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>12</v>
@@ -8757,10 +8754,10 @@
         <v>21</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>5</v>
@@ -8769,10 +8766,10 @@
         <v>42</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N94" s="6" t="s">
         <v>55</v>
@@ -8796,10 +8793,10 @@
         <v>4</v>
       </c>
       <c r="U94" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V94" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
@@ -8807,7 +8804,7 @@
         <v>44710</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>12</v>
@@ -8828,7 +8825,7 @@
         <v>130</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>5</v>
@@ -8837,10 +8834,10 @@
         <v>31</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N95" s="6" t="s">
         <v>29</v>
@@ -8864,10 +8861,10 @@
         <v>1</v>
       </c>
       <c r="U95" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V95" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
@@ -8875,7 +8872,7 @@
         <v>44714</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>12</v>
@@ -8893,10 +8890,10 @@
         <v>21</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J96" s="5" t="s">
         <v>5</v>
@@ -8905,7 +8902,7 @@
         <v>42</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M96" s="6" t="s">
         <v>93</v>
@@ -8932,7 +8929,7 @@
         <v>1</v>
       </c>
       <c r="U96" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V96" t="s">
         <v>60</v>
@@ -8943,7 +8940,7 @@
         <v>44723</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>12</v>
@@ -8964,7 +8961,7 @@
         <v>69</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>5</v>
@@ -8973,7 +8970,7 @@
         <v>4</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M97" s="6" t="s">
         <v>93</v>
@@ -9000,7 +8997,7 @@
         <v>22</v>
       </c>
       <c r="U97" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V97" t="s">
         <v>0</v>
@@ -9011,7 +9008,7 @@
         <v>44737</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>12</v>
@@ -9032,7 +9029,7 @@
         <v>111</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>5</v>
@@ -9041,7 +9038,7 @@
         <v>31</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M98" s="6" t="s">
         <v>93</v>
@@ -9068,10 +9065,10 @@
         <v>5</v>
       </c>
       <c r="U98" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V98" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
@@ -9079,10 +9076,10 @@
         <v>44737</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>11</v>
@@ -9100,7 +9097,7 @@
         <v>84</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J99" s="5" t="s">
         <v>18</v>
@@ -9109,7 +9106,7 @@
         <v>106</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M99" s="6" t="s">
         <v>93</v>
@@ -9136,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="U99" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V99" t="s">
         <v>92</v>
@@ -9147,7 +9144,7 @@
         <v>44743</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>12</v>
@@ -9168,7 +9165,7 @@
         <v>130</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>5</v>
@@ -9177,7 +9174,7 @@
         <v>31</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M100" s="6" t="s">
         <v>80</v>
@@ -9204,10 +9201,10 @@
         <v>22</v>
       </c>
       <c r="U100" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.3">
@@ -9233,10 +9230,10 @@
         <v>21</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>5</v>
@@ -9245,7 +9242,7 @@
         <v>4</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M101" s="6" t="s">
         <v>66</v>
@@ -9272,10 +9269,10 @@
         <v>6</v>
       </c>
       <c r="U101" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V101" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
@@ -9301,10 +9298,10 @@
         <v>21</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>5</v>
@@ -9313,7 +9310,7 @@
         <v>4</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M102" s="6" t="s">
         <v>66</v>
@@ -9340,10 +9337,10 @@
         <v>6</v>
       </c>
       <c r="U102" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="V102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.3">
@@ -9369,10 +9366,10 @@
         <v>21</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>5</v>
@@ -9381,7 +9378,7 @@
         <v>42</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M103" s="6" t="s">
         <v>40</v>
@@ -9408,10 +9405,10 @@
         <v>1</v>
       </c>
       <c r="U103" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V103" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.3">
@@ -9437,10 +9434,10 @@
         <v>21</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J104" s="5" t="s">
         <v>5</v>
@@ -9449,7 +9446,7 @@
         <v>4</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M104" s="6" t="s">
         <v>40</v>
@@ -9476,10 +9473,10 @@
         <v>17</v>
       </c>
       <c r="U104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.3">
@@ -9487,7 +9484,7 @@
         <v>44849</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>22</v>
@@ -9505,10 +9502,10 @@
         <v>21</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J105" s="12" t="s">
         <v>5</v>
@@ -9520,7 +9517,7 @@
         <v>52</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N105" s="6" t="s">
         <v>15</v>
@@ -9544,10 +9541,10 @@
         <v>14</v>
       </c>
       <c r="U105" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="V105" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.3">
@@ -9555,7 +9552,7 @@
         <v>44849</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>22</v>
@@ -9573,10 +9570,10 @@
         <v>21</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J106" s="12" t="s">
         <v>5</v>
@@ -9588,7 +9585,7 @@
         <v>52</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N106" s="6" t="s">
         <v>15</v>
@@ -9612,10 +9609,10 @@
         <v>14</v>
       </c>
       <c r="U106" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="V106" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.3">
@@ -9623,7 +9620,7 @@
         <v>44849</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>22</v>
@@ -9641,10 +9638,10 @@
         <v>21</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J107" s="12" t="s">
         <v>5</v>
@@ -9656,7 +9653,7 @@
         <v>52</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N107" s="6" t="s">
         <v>15</v>
@@ -9680,10 +9677,10 @@
         <v>14</v>
       </c>
       <c r="U107" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="V107" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.3">
@@ -9691,7 +9688,7 @@
         <v>44864</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>12</v>
@@ -9709,10 +9706,10 @@
         <v>21</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J108" s="12" t="s">
         <v>5</v>
@@ -9721,10 +9718,10 @@
         <v>42</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N108" s="6" t="s">
         <v>29</v>
@@ -9748,7 +9745,7 @@
         <v>19</v>
       </c>
       <c r="U108" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V108" t="s">
         <v>92</v>
@@ -9759,7 +9756,7 @@
         <v>44875</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>12</v>
@@ -9780,7 +9777,7 @@
         <v>63</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J109" s="5" t="s">
         <v>5</v>
@@ -9792,7 +9789,7 @@
         <v>4</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N109" s="6" t="s">
         <v>24</v>
@@ -9816,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="U109" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V109" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
@@ -9827,7 +9824,7 @@
         <v>44882</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>12</v>
@@ -9848,7 +9845,7 @@
         <v>44</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J110" s="5" t="s">
         <v>5</v>
@@ -9857,10 +9854,10 @@
         <v>42</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N110" s="6" t="s">
         <v>24</v>
@@ -9884,7 +9881,7 @@
         <v>4</v>
       </c>
       <c r="U110" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V110" t="s">
         <v>116</v>
@@ -9895,7 +9892,7 @@
         <v>44888</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>12</v>
@@ -9913,10 +9910,10 @@
         <v>21</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J111" s="5" t="s">
         <v>5</v>
@@ -9925,10 +9922,10 @@
         <v>31</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N111" s="6" t="s">
         <v>51</v>
@@ -9952,10 +9949,10 @@
         <v>23</v>
       </c>
       <c r="U111" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V111" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.3">
@@ -9963,7 +9960,7 @@
         <v>44892</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>12</v>
@@ -9981,10 +9978,10 @@
         <v>21</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J112" s="5" t="s">
         <v>5</v>
@@ -9993,10 +9990,10 @@
         <v>31</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N112" s="6" t="s">
         <v>29</v>
@@ -10020,10 +10017,10 @@
         <v>21</v>
       </c>
       <c r="U112" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="V112" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.3">
@@ -10031,7 +10028,7 @@
         <v>44894</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>12</v>
@@ -10052,7 +10049,7 @@
         <v>69</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J113" s="5" t="s">
         <v>5</v>
@@ -10061,10 +10058,10 @@
         <v>4</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N113" s="6" t="s">
         <v>1</v>
@@ -10088,7 +10085,7 @@
         <v>19</v>
       </c>
       <c r="U113" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V113" t="s">
         <v>0</v>
@@ -10099,7 +10096,7 @@
         <v>44894</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>12</v>
@@ -10120,7 +10117,7 @@
         <v>98</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J114" s="5" t="s">
         <v>5</v>
@@ -10129,10 +10126,10 @@
         <v>31</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N114" s="6" t="s">
         <v>1</v>
@@ -10156,10 +10153,10 @@
         <v>17</v>
       </c>
       <c r="U114" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="V114" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.3">
@@ -10167,7 +10164,7 @@
         <v>44908</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>12</v>
@@ -10185,10 +10182,10 @@
         <v>21</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J115" s="5" t="s">
         <v>5</v>
@@ -10197,10 +10194,10 @@
         <v>42</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N115" s="6" t="s">
         <v>1</v>
@@ -10221,10 +10218,10 @@
         <v>44908.659722222219</v>
       </c>
       <c r="T115" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U115" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V115" t="s">
         <v>92</v>
@@ -10235,7 +10232,7 @@
         <v>44917</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>12</v>
@@ -10253,10 +10250,10 @@
         <v>21</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J116" s="5" t="s">
         <v>5</v>
@@ -10265,10 +10262,10 @@
         <v>31</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N116" s="6" t="s">
         <v>24</v>
@@ -10289,13 +10286,13 @@
         <v>44917.206944444442</v>
       </c>
       <c r="T116" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U116" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.3">
@@ -10303,7 +10300,7 @@
         <v>44910</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>22</v>
@@ -10321,10 +10318,10 @@
         <v>21</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J117" s="5" t="s">
         <v>18</v>
@@ -10333,10 +10330,10 @@
         <v>17</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N117" s="6" t="s">
         <v>24</v>
@@ -10357,13 +10354,13 @@
         <v>44910.54583333333</v>
       </c>
       <c r="T117" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U117" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V117" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.3">
@@ -10371,7 +10368,7 @@
         <v>44916</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>12</v>
@@ -10392,7 +10389,7 @@
         <v>7</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J118" s="5" t="s">
         <v>5</v>
@@ -10401,10 +10398,10 @@
         <v>4</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N118" s="6" t="s">
         <v>51</v>
@@ -10425,13 +10422,13 @@
         <v>44916.480555555558</v>
       </c>
       <c r="T118" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U118" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="V118" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.3">
@@ -10460,7 +10457,7 @@
         <v>63</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J119" s="8" t="s">
         <v>5</v>
@@ -10469,10 +10466,10 @@
         <v>31</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N119" s="6" t="s">
         <v>142</v>
@@ -10496,10 +10493,10 @@
         <v>2</v>
       </c>
       <c r="U119" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V119" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.3">
@@ -10525,10 +10522,10 @@
         <v>21</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J120" s="8" t="s">
         <v>5</v>
@@ -10537,10 +10534,10 @@
         <v>31</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N120" s="6" t="s">
         <v>1</v>
@@ -10564,10 +10561,10 @@
         <v>16</v>
       </c>
       <c r="U120" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V120" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.3">
@@ -10596,7 +10593,7 @@
         <v>111</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J121" s="8" t="s">
         <v>5</v>
@@ -10605,10 +10602,10 @@
         <v>31</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M121" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N121" s="6" t="s">
         <v>142</v>
@@ -10632,10 +10629,10 @@
         <v>21</v>
       </c>
       <c r="U121" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V121" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.3">
@@ -10664,7 +10661,7 @@
         <v>63</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J122" s="8" t="s">
         <v>5</v>
@@ -10673,10 +10670,10 @@
         <v>4</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N122" s="6" t="s">
         <v>1</v>
@@ -10700,10 +10697,10 @@
         <v>21</v>
       </c>
       <c r="U122" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V122" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.3">
@@ -10729,10 +10726,10 @@
         <v>21</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J123" s="5" t="s">
         <v>5</v>
@@ -10741,10 +10738,10 @@
         <v>17</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M123" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N123" s="6" t="s">
         <v>51</v>
@@ -10768,10 +10765,10 @@
         <v>14</v>
       </c>
       <c r="U123" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V123" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.3">
@@ -10797,10 +10794,10 @@
         <v>8</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J124" s="5" t="s">
         <v>5</v>
@@ -10809,10 +10806,10 @@
         <v>42</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N124" s="6" t="s">
         <v>24</v>
@@ -10824,7 +10821,7 @@
         <v>5</v>
       </c>
       <c r="Q124" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R124" s="6">
         <v>-99.288995999999997</v>
@@ -10836,10 +10833,10 @@
         <v>8</v>
       </c>
       <c r="U124" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="V124" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.3">
@@ -10865,10 +10862,10 @@
         <v>8</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J125" s="5" t="s">
         <v>5</v>
@@ -10877,7 +10874,7 @@
         <v>17</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>100</v>
@@ -10904,10 +10901,10 @@
         <v>20</v>
       </c>
       <c r="U125" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V125" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.3">
@@ -10936,7 +10933,7 @@
         <v>115</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J126" s="5" t="s">
         <v>5</v>
@@ -10945,7 +10942,7 @@
         <v>31</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M126" s="1" t="s">
         <v>100</v>
@@ -10972,10 +10969,10 @@
         <v>3</v>
       </c>
       <c r="U126" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V126" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.3">
@@ -11004,7 +11001,7 @@
         <v>115</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J127" s="5" t="s">
         <v>5</v>
@@ -11013,7 +11010,7 @@
         <v>31</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>100</v>
@@ -11040,10 +11037,10 @@
         <v>3</v>
       </c>
       <c r="U127" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V127" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.3">
@@ -11108,10 +11105,10 @@
         <v>14</v>
       </c>
       <c r="U128" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V128" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.3">
@@ -11176,7 +11173,7 @@
         <v>18</v>
       </c>
       <c r="U129" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V129" t="s">
         <v>0</v>
@@ -11244,10 +11241,10 @@
         <v>20</v>
       </c>
       <c r="U130" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V130" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.3">
@@ -11312,10 +11309,10 @@
         <v>7</v>
       </c>
       <c r="U131" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V131" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.3">
@@ -11380,10 +11377,10 @@
         <v>2</v>
       </c>
       <c r="U132" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V132" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.3">
@@ -11448,7 +11445,7 @@
         <v>6</v>
       </c>
       <c r="U133" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V133" t="s">
         <v>141</v>
@@ -11516,10 +11513,10 @@
         <v>6</v>
       </c>
       <c r="U134" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V134" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.3">
@@ -11584,10 +11581,10 @@
         <v>22</v>
       </c>
       <c r="U135" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V135" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.3">
@@ -11652,10 +11649,10 @@
         <v>22</v>
       </c>
       <c r="U136" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V136" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.3">
@@ -11720,10 +11717,10 @@
         <v>18</v>
       </c>
       <c r="U137" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V137" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.3">
@@ -11788,10 +11785,10 @@
         <v>18</v>
       </c>
       <c r="U138" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V138" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.3">
@@ -11856,10 +11853,10 @@
         <v>21</v>
       </c>
       <c r="U139" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="V139" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.3">
@@ -11924,10 +11921,10 @@
         <v>5</v>
       </c>
       <c r="U140" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V140" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.3">
@@ -11992,10 +11989,10 @@
         <v>0</v>
       </c>
       <c r="U141" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V141" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.3">
@@ -12060,10 +12057,10 @@
         <v>7</v>
       </c>
       <c r="U142" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="V142" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.3">
@@ -12128,7 +12125,7 @@
         <v>7</v>
       </c>
       <c r="U143" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V143" t="s">
         <v>122</v>
@@ -12196,10 +12193,10 @@
         <v>21</v>
       </c>
       <c r="U144" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V144" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.3">
@@ -12264,7 +12261,7 @@
         <v>21</v>
       </c>
       <c r="U145" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V145" t="s">
         <v>116</v>
@@ -12332,7 +12329,7 @@
         <v>3</v>
       </c>
       <c r="U146" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V146" t="s">
         <v>112</v>
@@ -12400,7 +12397,7 @@
         <v>21</v>
       </c>
       <c r="U147" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="V147" t="s">
         <v>108</v>
@@ -12468,10 +12465,10 @@
         <v>18</v>
       </c>
       <c r="U148" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V148" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.3">
@@ -12536,7 +12533,7 @@
         <v>8</v>
       </c>
       <c r="U149" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V149" t="s">
         <v>99</v>
@@ -12604,7 +12601,7 @@
         <v>9</v>
       </c>
       <c r="U150" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V150" t="s">
         <v>92</v>
@@ -12672,7 +12669,7 @@
         <v>23</v>
       </c>
       <c r="U151" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V151" t="s">
         <v>92</v>
@@ -12740,10 +12737,10 @@
         <v>1</v>
       </c>
       <c r="U152" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V152" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.3">
@@ -12808,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="U153" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V153" t="s">
         <v>86</v>
@@ -12876,7 +12873,7 @@
         <v>23</v>
       </c>
       <c r="U154" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V154" t="s">
         <v>79</v>
@@ -12944,7 +12941,7 @@
         <v>16</v>
       </c>
       <c r="U155" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V155" t="s">
         <v>0</v>
@@ -13012,7 +13009,7 @@
         <v>6</v>
       </c>
       <c r="U156" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V156" t="s">
         <v>73</v>
@@ -13080,10 +13077,10 @@
         <v>23</v>
       </c>
       <c r="U157" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V157" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.3">
@@ -13148,7 +13145,7 @@
         <v>15</v>
       </c>
       <c r="U158" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V158" t="s">
         <v>0</v>
@@ -13216,10 +13213,10 @@
         <v>5</v>
       </c>
       <c r="U159" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V159" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.3">
@@ -13284,10 +13281,10 @@
         <v>3</v>
       </c>
       <c r="U160" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V160" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.3">
@@ -13352,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="U161" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V161" t="s">
         <v>60</v>
@@ -13420,10 +13417,10 @@
         <v>0</v>
       </c>
       <c r="U162" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V162" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.3">
@@ -13488,10 +13485,10 @@
         <v>10</v>
       </c>
       <c r="U163" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V163" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.3">
@@ -13556,10 +13553,10 @@
         <v>5</v>
       </c>
       <c r="U164" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V164" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.3">
@@ -13624,7 +13621,7 @@
         <v>22</v>
       </c>
       <c r="U165" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V165" t="s">
         <v>0</v>
@@ -13692,7 +13689,7 @@
         <v>22</v>
       </c>
       <c r="U166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V166" t="s">
         <v>39</v>
@@ -13760,7 +13757,7 @@
         <v>12</v>
       </c>
       <c r="U167" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V167" t="s">
         <v>0</v>
@@ -13828,10 +13825,10 @@
         <v>2</v>
       </c>
       <c r="U168" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V168" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.3">
@@ -13896,10 +13893,10 @@
         <v>14</v>
       </c>
       <c r="U169" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V169" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.3">
@@ -13964,7 +13961,7 @@
         <v>15</v>
       </c>
       <c r="U170" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V170" s="4" t="s">
         <v>14</v>
@@ -14032,13 +14029,14 @@
         <v>16</v>
       </c>
       <c r="U171" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V171" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V171" xr:uid="{C4726C8F-BBC3-446E-9BC4-73BAF79C8F0B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Historico de Robos Colgate.xlsx
+++ b/data/Historico de Robos Colgate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elthon Daniel Rivas\OneDrive - ILSP GLOBAL SEGURIDAD PRIVADA SAPI DE C.V\Documentos\Areas de Trabajo\Inteligencia de Negocios\Aplicaciones\Productivo\RiesgoColgate\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D16DB6-8A73-45BC-A835-8166EF8C899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451C08F4-933F-4772-8E68-13A3A776C5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F990D130-DE1D-4C88-8964-88BAD76D8B5D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="586">
   <si>
     <t>Autopista México - Puebla</t>
   </si>
@@ -513,9 +513,6 @@
     <t>ELOLA</t>
   </si>
   <si>
-    <t>Autopista de Peaje Salamanca-Celaya</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ABARROTERA DEL DUERO LEON GTO</t>
   </si>
   <si>
@@ -1725,9 +1722,6 @@
     <t>Autopista Villa Apaseo El Alto - Celaya</t>
   </si>
   <si>
-    <t>Autopista Celaya-Salamanca</t>
-  </si>
-  <si>
     <t>Autopista Morelia - Salamanca</t>
   </si>
   <si>
@@ -1749,9 +1743,6 @@
     <t>Acambay de Ruíz Castañeda</t>
   </si>
   <si>
-    <t>Autopista Celaya - Salamanca</t>
-  </si>
-  <si>
     <t>Carretera Libre Tecate - Tijuana</t>
   </si>
   <si>
@@ -1800,15 +1791,9 @@
     <t>Zimapán</t>
   </si>
   <si>
-    <t>Autopista de Peaje Salamanca - León</t>
-  </si>
-  <si>
     <t>Autopista Xalapa - Veracruz</t>
   </si>
   <si>
-    <t>Autopista de Peaje Salamanca - Celaya</t>
-  </si>
-  <si>
     <t>Macrolibramiento Jalisco</t>
   </si>
   <si>
@@ -1828,6 +1813,9 @@
   </si>
   <si>
     <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>Autopista Salamanca - Celaya</t>
   </si>
 </sst>
 </file>
@@ -2395,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4726C8F-BBC3-446E-9BC4-73BAF79C8F0B}">
   <dimension ref="A1:V171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="N17" workbookViewId="0">
+      <selection activeCell="V172" sqref="V172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2409,70 +2397,70 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="U1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="V1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -2483,7 +2471,7 @@
         <v>411634956</v>
       </c>
       <c r="C2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -2498,10 +2486,10 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -2510,10 +2498,10 @@
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>51</v>
@@ -2537,10 +2525,10 @@
         <v>18</v>
       </c>
       <c r="U2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2551,7 +2539,7 @@
         <v>421675932</v>
       </c>
       <c r="C3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -2566,10 +2554,10 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -2578,10 +2566,10 @@
         <v>31</v>
       </c>
       <c r="L3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>55</v>
@@ -2605,10 +2593,10 @@
         <v>5</v>
       </c>
       <c r="U3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -2619,7 +2607,7 @@
         <v>421698921</v>
       </c>
       <c r="C4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -2634,10 +2622,10 @@
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
@@ -2646,10 +2634,10 @@
         <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>1</v>
@@ -2673,10 +2661,10 @@
         <v>5</v>
       </c>
       <c r="U4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2687,7 +2675,7 @@
         <v>421723027</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2702,10 +2690,10 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J5" t="s">
         <v>5</v>
@@ -2714,10 +2702,10 @@
         <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>51</v>
@@ -2741,10 +2729,10 @@
         <v>18</v>
       </c>
       <c r="U5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -2755,7 +2743,7 @@
         <v>431776799</v>
       </c>
       <c r="C6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2770,10 +2758,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J6" t="s">
         <v>5</v>
@@ -2782,7 +2770,7 @@
         <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>100</v>
@@ -2809,10 +2797,10 @@
         <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -2823,7 +2811,7 @@
         <v>431781712</v>
       </c>
       <c r="C7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -2838,10 +2826,10 @@
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
@@ -2850,7 +2838,7 @@
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>100</v>
@@ -2877,7 +2865,7 @@
         <v>15</v>
       </c>
       <c r="U7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V7" t="s">
         <v>0</v>
@@ -2891,7 +2879,7 @@
         <v>431791702</v>
       </c>
       <c r="C8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -2906,10 +2894,10 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
@@ -2918,7 +2906,7 @@
         <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>100</v>
@@ -2945,7 +2933,7 @@
         <v>18</v>
       </c>
       <c r="U8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V8" t="s">
         <v>0</v>
@@ -2959,7 +2947,7 @@
         <v>431800319</v>
       </c>
       <c r="C9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -2977,7 +2965,7 @@
         <v>125</v>
       </c>
       <c r="I9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J9" t="s">
         <v>5</v>
@@ -2986,7 +2974,7 @@
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>100</v>
@@ -3013,10 +3001,10 @@
         <v>19</v>
       </c>
       <c r="U9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -3027,7 +3015,7 @@
         <v>441854006</v>
       </c>
       <c r="C10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D10" t="s">
         <v>47</v>
@@ -3045,7 +3033,7 @@
         <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J10" t="s">
         <v>5</v>
@@ -3054,10 +3042,10 @@
         <v>4</v>
       </c>
       <c r="L10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>1</v>
@@ -3081,10 +3069,10 @@
         <v>6</v>
       </c>
       <c r="U10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -3095,7 +3083,7 @@
         <v>441877183</v>
       </c>
       <c r="C11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -3110,10 +3098,10 @@
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J11" t="s">
         <v>5</v>
@@ -3122,10 +3110,10 @@
         <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>51</v>
@@ -3149,10 +3137,10 @@
         <v>6</v>
       </c>
       <c r="U11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -3163,7 +3151,7 @@
         <v>441877244</v>
       </c>
       <c r="C12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -3178,10 +3166,10 @@
         <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J12" t="s">
         <v>5</v>
@@ -3190,10 +3178,10 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>51</v>
@@ -3217,10 +3205,10 @@
         <v>6</v>
       </c>
       <c r="U12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -3231,7 +3219,7 @@
         <v>451929922</v>
       </c>
       <c r="C13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
@@ -3246,22 +3234,22 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J13" t="s">
         <v>5</v>
       </c>
       <c r="K13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>51</v>
@@ -3285,7 +3273,7 @@
         <v>5</v>
       </c>
       <c r="U13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V13" t="s">
         <v>0</v>
@@ -3299,7 +3287,7 @@
         <v>451930318</v>
       </c>
       <c r="C14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -3317,7 +3305,7 @@
         <v>125</v>
       </c>
       <c r="I14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J14" t="s">
         <v>5</v>
@@ -3326,10 +3314,10 @@
         <v>4</v>
       </c>
       <c r="L14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>51</v>
@@ -3353,10 +3341,10 @@
         <v>6</v>
       </c>
       <c r="U14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -3367,7 +3355,7 @@
         <v>451932225</v>
       </c>
       <c r="C15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -3382,10 +3370,10 @@
         <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J15" t="s">
         <v>5</v>
@@ -3394,10 +3382,10 @@
         <v>42</v>
       </c>
       <c r="L15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>24</v>
@@ -3421,10 +3409,10 @@
         <v>6</v>
       </c>
       <c r="U15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -3435,7 +3423,7 @@
         <v>462003448</v>
       </c>
       <c r="C16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -3453,7 +3441,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J16" t="s">
         <v>5</v>
@@ -3462,7 +3450,7 @@
         <v>4</v>
       </c>
       <c r="L16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>93</v>
@@ -3489,7 +3477,7 @@
         <v>13</v>
       </c>
       <c r="U16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V16" t="s">
         <v>0</v>
@@ -3503,7 +3491,7 @@
         <v>462020819</v>
       </c>
       <c r="C17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -3518,10 +3506,10 @@
         <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J17" t="s">
         <v>5</v>
@@ -3530,7 +3518,7 @@
         <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>93</v>
@@ -3557,10 +3545,10 @@
         <v>7</v>
       </c>
       <c r="U17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V17" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -3571,7 +3559,7 @@
         <v>472137598</v>
       </c>
       <c r="C18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -3589,7 +3577,7 @@
         <v>125</v>
       </c>
       <c r="I18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J18" t="s">
         <v>5</v>
@@ -3598,7 +3586,7 @@
         <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>80</v>
@@ -3625,10 +3613,10 @@
         <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V18" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -3639,7 +3627,7 @@
         <v>482221436</v>
       </c>
       <c r="C19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D19" t="s">
         <v>47</v>
@@ -3654,10 +3642,10 @@
         <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J19" t="s">
         <v>5</v>
@@ -3693,10 +3681,10 @@
         <v>1</v>
       </c>
       <c r="U19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -3707,7 +3695,7 @@
         <v>482254889</v>
       </c>
       <c r="C20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -3722,10 +3710,10 @@
         <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J20" t="s">
         <v>5</v>
@@ -3734,7 +3722,7 @@
         <v>31</v>
       </c>
       <c r="L20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>66</v>
@@ -3761,10 +3749,10 @@
         <v>6</v>
       </c>
       <c r="U20" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V20" t="s">
-        <v>555</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -3775,7 +3763,7 @@
         <v>492350113</v>
       </c>
       <c r="C21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -3790,10 +3778,10 @@
         <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J21" t="s">
         <v>5</v>
@@ -3829,10 +3817,10 @@
         <v>19</v>
       </c>
       <c r="U21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -3840,10 +3828,10 @@
         <v>44115</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D22" t="s">
         <v>47</v>
@@ -3861,7 +3849,7 @@
         <v>95</v>
       </c>
       <c r="I22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J22" t="s">
         <v>5</v>
@@ -3870,10 +3858,10 @@
         <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>29</v>
@@ -3897,10 +3885,10 @@
         <v>21</v>
       </c>
       <c r="U22" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="V22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3908,10 +3896,10 @@
         <v>44119</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D23" t="s">
         <v>47</v>
@@ -3926,10 +3914,10 @@
         <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J23" t="s">
         <v>5</v>
@@ -3938,10 +3926,10 @@
         <v>42</v>
       </c>
       <c r="L23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>24</v>
@@ -3965,10 +3953,10 @@
         <v>4</v>
       </c>
       <c r="U23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -3976,10 +3964,10 @@
         <v>44136</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
@@ -3997,7 +3985,7 @@
         <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J24" t="s">
         <v>5</v>
@@ -4006,10 +3994,10 @@
         <v>4</v>
       </c>
       <c r="L24" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>29</v>
@@ -4033,10 +4021,10 @@
         <v>13</v>
       </c>
       <c r="U24" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="V24" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -4044,10 +4032,10 @@
         <v>44145</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -4065,7 +4053,7 @@
         <v>125</v>
       </c>
       <c r="I25" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J25" t="s">
         <v>5</v>
@@ -4074,10 +4062,10 @@
         <v>31</v>
       </c>
       <c r="L25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>1</v>
@@ -4101,7 +4089,7 @@
         <v>23</v>
       </c>
       <c r="U25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="V25" t="s">
         <v>79</v>
@@ -4112,10 +4100,10 @@
         <v>44150</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C26" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -4130,10 +4118,10 @@
         <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J26" t="s">
         <v>5</v>
@@ -4142,10 +4130,10 @@
         <v>31</v>
       </c>
       <c r="L26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>29</v>
@@ -4169,10 +4157,10 @@
         <v>10</v>
       </c>
       <c r="U26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
@@ -4180,10 +4168,10 @@
         <v>44158</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D27" t="s">
         <v>47</v>
@@ -4198,10 +4186,10 @@
         <v>21</v>
       </c>
       <c r="H27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J27" t="s">
         <v>5</v>
@@ -4213,7 +4201,7 @@
         <v>52</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>142</v>
@@ -4237,10 +4225,10 @@
         <v>2</v>
       </c>
       <c r="U27" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="V27" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -4248,10 +4236,10 @@
         <v>44161</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -4266,10 +4254,10 @@
         <v>21</v>
       </c>
       <c r="H28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J28" t="s">
         <v>5</v>
@@ -4278,10 +4266,10 @@
         <v>52</v>
       </c>
       <c r="L28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>24</v>
@@ -4305,7 +4293,7 @@
         <v>3</v>
       </c>
       <c r="U28" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V28" t="s">
         <v>116</v>
@@ -4316,10 +4304,10 @@
         <v>44175</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -4334,10 +4322,10 @@
         <v>21</v>
       </c>
       <c r="H29" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J29" t="s">
         <v>5</v>
@@ -4346,10 +4334,10 @@
         <v>31</v>
       </c>
       <c r="L29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>24</v>
@@ -4373,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="U29" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V29" t="s">
         <v>116</v>
@@ -4384,10 +4372,10 @@
         <v>44181</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C30" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -4405,7 +4393,7 @@
         <v>63</v>
       </c>
       <c r="I30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J30" t="s">
         <v>5</v>
@@ -4414,10 +4402,10 @@
         <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>51</v>
@@ -4441,10 +4429,10 @@
         <v>4</v>
       </c>
       <c r="U30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
@@ -4452,10 +4440,10 @@
         <v>44183</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -4470,10 +4458,10 @@
         <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J31" t="s">
         <v>5</v>
@@ -4482,10 +4470,10 @@
         <v>31</v>
       </c>
       <c r="L31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>55</v>
@@ -4509,10 +4497,10 @@
         <v>21</v>
       </c>
       <c r="U31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -4520,10 +4508,10 @@
         <v>44192</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
@@ -4541,7 +4529,7 @@
         <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J32" t="s">
         <v>5</v>
@@ -4550,10 +4538,10 @@
         <v>4</v>
       </c>
       <c r="L32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>29</v>
@@ -4577,7 +4565,7 @@
         <v>13</v>
       </c>
       <c r="U32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V32" t="s">
         <v>116</v>
@@ -4591,7 +4579,7 @@
         <v>512656625</v>
       </c>
       <c r="C33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -4606,10 +4594,10 @@
         <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I33" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J33" t="s">
         <v>5</v>
@@ -4618,10 +4606,10 @@
         <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>51</v>
@@ -4645,10 +4633,10 @@
         <v>5</v>
       </c>
       <c r="U33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V33" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
@@ -4659,7 +4647,7 @@
         <v>512655074</v>
       </c>
       <c r="C34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -4677,7 +4665,7 @@
         <v>84</v>
       </c>
       <c r="I34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J34" t="s">
         <v>18</v>
@@ -4686,10 +4674,10 @@
         <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>51</v>
@@ -4713,10 +4701,10 @@
         <v>10</v>
       </c>
       <c r="U34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V34" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
@@ -4727,7 +4715,7 @@
         <v>573038808</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>47</v>
@@ -4739,13 +4727,13 @@
         <v>10</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>5</v>
@@ -4754,10 +4742,10 @@
         <v>17</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N35" s="6" t="s">
         <v>29</v>
@@ -4781,10 +4769,10 @@
         <v>9</v>
       </c>
       <c r="U35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
@@ -4795,7 +4783,7 @@
         <v>522699174</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>11</v>
@@ -4810,10 +4798,10 @@
         <v>21</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J36" s="15" t="s">
         <v>5</v>
@@ -4822,10 +4810,10 @@
         <v>31</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N36" s="6" t="s">
         <v>1</v>
@@ -4849,7 +4837,7 @@
         <v>3</v>
       </c>
       <c r="U36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V36" t="s">
         <v>116</v>
@@ -4863,7 +4851,7 @@
         <v>522738498</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>11</v>
@@ -4875,13 +4863,13 @@
         <v>10</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>5</v>
@@ -4890,10 +4878,10 @@
         <v>31</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N37" s="6" t="s">
         <v>24</v>
@@ -4917,10 +4905,10 @@
         <v>22</v>
       </c>
       <c r="U37" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -4931,7 +4919,7 @@
         <v>532753974</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>47</v>
@@ -4946,10 +4934,10 @@
         <v>21</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J38" s="15" t="s">
         <v>5</v>
@@ -4958,7 +4946,7 @@
         <v>4</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M38" s="6" t="s">
         <v>100</v>
@@ -4985,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="U38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V38" t="s">
         <v>86</v>
@@ -4999,7 +4987,7 @@
         <v>532767483</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>11</v>
@@ -5017,7 +5005,7 @@
         <v>89</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J39" s="15" t="s">
         <v>5</v>
@@ -5026,7 +5014,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M39" s="6" t="s">
         <v>100</v>
@@ -5053,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V39" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -5067,7 +5055,7 @@
         <v>532780107</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>11</v>
@@ -5079,13 +5067,13 @@
         <v>9</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J40" s="15" t="s">
         <v>5</v>
@@ -5094,7 +5082,7 @@
         <v>17</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M40" s="6" t="s">
         <v>100</v>
@@ -5121,7 +5109,7 @@
         <v>13</v>
       </c>
       <c r="U40" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V40" t="s">
         <v>86</v>
@@ -5135,7 +5123,7 @@
         <v>542848062</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>11</v>
@@ -5153,7 +5141,7 @@
         <v>7</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J41" s="15" t="s">
         <v>5</v>
@@ -5162,10 +5150,10 @@
         <v>42</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N41" s="6" t="s">
         <v>51</v>
@@ -5189,10 +5177,10 @@
         <v>8</v>
       </c>
       <c r="U41" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V41" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -5203,7 +5191,7 @@
         <v>542859488</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>47</v>
@@ -5218,10 +5206,10 @@
         <v>21</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J42" s="15" t="s">
         <v>5</v>
@@ -5230,10 +5218,10 @@
         <v>17</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N42" s="6" t="s">
         <v>1</v>
@@ -5257,10 +5245,10 @@
         <v>14</v>
       </c>
       <c r="U42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
@@ -5271,7 +5259,7 @@
         <v>542863160</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>11</v>
@@ -5286,10 +5274,10 @@
         <v>21</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J43" s="15" t="s">
         <v>5</v>
@@ -5298,10 +5286,10 @@
         <v>31</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N43" s="6" t="s">
         <v>51</v>
@@ -5325,10 +5313,10 @@
         <v>7</v>
       </c>
       <c r="U43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V43" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
@@ -5339,7 +5327,7 @@
         <v>542867022</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>11</v>
@@ -5357,7 +5345,7 @@
         <v>63</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>5</v>
@@ -5366,10 +5354,10 @@
         <v>4</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N44" s="6" t="s">
         <v>24</v>
@@ -5393,10 +5381,10 @@
         <v>16</v>
       </c>
       <c r="U44" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -5407,7 +5395,7 @@
         <v>542880915</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>47</v>
@@ -5425,7 +5413,7 @@
         <v>125</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J45" s="15" t="s">
         <v>5</v>
@@ -5434,10 +5422,10 @@
         <v>4</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N45" s="6" t="s">
         <v>51</v>
@@ -5461,10 +5449,10 @@
         <v>7</v>
       </c>
       <c r="U45" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
@@ -5475,7 +5463,7 @@
         <v>542880491</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>11</v>
@@ -5493,7 +5481,7 @@
         <v>84</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J46" s="15" t="s">
         <v>18</v>
@@ -5502,10 +5490,10 @@
         <v>42</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N46" s="6" t="s">
         <v>51</v>
@@ -5529,10 +5517,10 @@
         <v>8</v>
       </c>
       <c r="U46" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V46" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
@@ -5543,7 +5531,7 @@
         <v>542880882</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>11</v>
@@ -5555,13 +5543,13 @@
         <v>10</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>84</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J47" s="15" t="s">
         <v>18</v>
@@ -5570,10 +5558,10 @@
         <v>42</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N47" s="6" t="s">
         <v>51</v>
@@ -5597,10 +5585,10 @@
         <v>8</v>
       </c>
       <c r="U47" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V47" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
@@ -5611,7 +5599,7 @@
         <v>552899971</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D48" s="16" t="s">
         <v>11</v>
@@ -5629,19 +5617,19 @@
         <v>72</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J48" s="15" t="s">
         <v>5</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N48" s="6" t="s">
         <v>24</v>
@@ -5665,10 +5653,10 @@
         <v>22</v>
       </c>
       <c r="U48" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
@@ -5679,7 +5667,7 @@
         <v>552908754</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D49" s="16" t="s">
         <v>11</v>
@@ -5691,13 +5679,13 @@
         <v>9</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H49" s="16" t="s">
         <v>58</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J49" s="15" t="s">
         <v>5</v>
@@ -5706,10 +5694,10 @@
         <v>4</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N49" s="6" t="s">
         <v>1</v>
@@ -5733,7 +5721,7 @@
         <v>5</v>
       </c>
       <c r="U49" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V49" t="s">
         <v>0</v>
@@ -5747,7 +5735,7 @@
         <v>552915691</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>47</v>
@@ -5765,7 +5753,7 @@
         <v>130</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J50" s="15" t="s">
         <v>5</v>
@@ -5774,10 +5762,10 @@
         <v>31</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N50" s="6" t="s">
         <v>24</v>
@@ -5801,10 +5789,10 @@
         <v>6</v>
       </c>
       <c r="U50" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
@@ -5815,7 +5803,7 @@
         <v>562963377</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>11</v>
@@ -5830,10 +5818,10 @@
         <v>21</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J51" s="15" t="s">
         <v>5</v>
@@ -5842,7 +5830,7 @@
         <v>31</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M51" s="6" t="s">
         <v>93</v>
@@ -5869,10 +5857,10 @@
         <v>8</v>
       </c>
       <c r="U51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V51" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
@@ -5883,7 +5871,7 @@
         <v>562973220</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>11</v>
@@ -5901,7 +5889,7 @@
         <v>27</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J52" s="15" t="s">
         <v>5</v>
@@ -5910,7 +5898,7 @@
         <v>4</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M52" s="6" t="s">
         <v>93</v>
@@ -5937,7 +5925,7 @@
         <v>12</v>
       </c>
       <c r="U52" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V52" t="s">
         <v>86</v>
@@ -5951,7 +5939,7 @@
         <v>563002578</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>47</v>
@@ -5963,13 +5951,13 @@
         <v>10</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H53" s="16" t="s">
         <v>58</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>5</v>
@@ -5978,7 +5966,7 @@
         <v>42</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M53" s="6" t="s">
         <v>93</v>
@@ -6005,10 +5993,10 @@
         <v>20</v>
       </c>
       <c r="U53" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
@@ -6019,7 +6007,7 @@
         <v>563014412</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D54" s="16" t="s">
         <v>11</v>
@@ -6031,13 +6019,13 @@
         <v>9</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>27</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>5</v>
@@ -6046,7 +6034,7 @@
         <v>4</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M54" s="6" t="s">
         <v>93</v>
@@ -6073,10 +6061,10 @@
         <v>12</v>
       </c>
       <c r="U54" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V54" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
@@ -6087,7 +6075,7 @@
         <v>573038169</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>11</v>
@@ -6102,10 +6090,10 @@
         <v>8</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>5</v>
@@ -6141,7 +6129,7 @@
         <v>2</v>
       </c>
       <c r="U55" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V55" t="s">
         <v>116</v>
@@ -6155,7 +6143,7 @@
         <v>583133623</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>11</v>
@@ -6173,7 +6161,7 @@
         <v>27</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>5</v>
@@ -6182,7 +6170,7 @@
         <v>4</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M56" s="6" t="s">
         <v>66</v>
@@ -6209,10 +6197,10 @@
         <v>9</v>
       </c>
       <c r="U56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V56" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
@@ -6223,7 +6211,7 @@
         <v>583140622</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>11</v>
@@ -6241,7 +6229,7 @@
         <v>27</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>5</v>
@@ -6250,7 +6238,7 @@
         <v>4</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M57" s="6" t="s">
         <v>66</v>
@@ -6277,10 +6265,10 @@
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
@@ -6291,7 +6279,7 @@
         <v>583171272</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>11</v>
@@ -6309,16 +6297,16 @@
         <v>63</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>66</v>
@@ -6345,10 +6333,10 @@
         <v>10</v>
       </c>
       <c r="U58" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="V58" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
@@ -6359,7 +6347,7 @@
         <v>593197096</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>47</v>
@@ -6374,10 +6362,10 @@
         <v>21</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>5</v>
@@ -6386,7 +6374,7 @@
         <v>17</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M59" s="6" t="s">
         <v>40</v>
@@ -6413,10 +6401,10 @@
         <v>18</v>
       </c>
       <c r="U59" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
@@ -6427,7 +6415,7 @@
         <v>593220435</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>47</v>
@@ -6445,7 +6433,7 @@
         <v>125</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>5</v>
@@ -6454,7 +6442,7 @@
         <v>4</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M60" s="6" t="s">
         <v>40</v>
@@ -6481,10 +6469,10 @@
         <v>9</v>
       </c>
       <c r="U60" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
@@ -6495,7 +6483,7 @@
         <v>593233364</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>47</v>
@@ -6513,7 +6501,7 @@
         <v>130</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>5</v>
@@ -6549,10 +6537,10 @@
         <v>8</v>
       </c>
       <c r="U61" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V61" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
@@ -6560,7 +6548,7 @@
         <v>44480.48846064815</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>12</v>
@@ -6578,10 +6566,10 @@
         <v>21</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>5</v>
@@ -6590,10 +6578,10 @@
         <v>42</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N62" s="6" t="s">
         <v>142</v>
@@ -6617,7 +6605,7 @@
         <v>15</v>
       </c>
       <c r="U62" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V62" t="s">
         <v>0</v>
@@ -6628,10 +6616,10 @@
         <v>44482.028831018521</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>47</v>
@@ -6649,7 +6637,7 @@
         <v>84</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>18</v>
@@ -6658,10 +6646,10 @@
         <v>106</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N63" s="6" t="s">
         <v>51</v>
@@ -6685,10 +6673,10 @@
         <v>2</v>
       </c>
       <c r="U63" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V63" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
@@ -6696,7 +6684,7 @@
         <v>44482.436886574076</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>22</v>
@@ -6714,10 +6702,10 @@
         <v>21</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>5</v>
@@ -6726,10 +6714,10 @@
         <v>17</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N64" s="6" t="s">
         <v>51</v>
@@ -6753,10 +6741,10 @@
         <v>12</v>
       </c>
       <c r="U64" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V64" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
@@ -6764,7 +6752,7 @@
         <v>44485.271921296298</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>12</v>
@@ -6782,10 +6770,10 @@
         <v>21</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>5</v>
@@ -6797,7 +6785,7 @@
         <v>74</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N65" s="6" t="s">
         <v>15</v>
@@ -6821,10 +6809,10 @@
         <v>8</v>
       </c>
       <c r="U65" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V65" t="s">
-        <v>151</v>
+        <v>585</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
@@ -6832,7 +6820,7 @@
         <v>44511</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>12</v>
@@ -6850,10 +6838,10 @@
         <v>21</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>5</v>
@@ -6862,10 +6850,10 @@
         <v>4</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N66" s="6" t="s">
         <v>24</v>
@@ -6889,10 +6877,10 @@
         <v>8</v>
       </c>
       <c r="U66" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V66" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
@@ -6900,7 +6888,7 @@
         <v>44517</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>12</v>
@@ -6918,10 +6906,10 @@
         <v>8</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>5</v>
@@ -6930,10 +6918,10 @@
         <v>31</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N67" s="6" t="s">
         <v>51</v>
@@ -6957,10 +6945,10 @@
         <v>5</v>
       </c>
       <c r="U67" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V67" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
@@ -6968,7 +6956,7 @@
         <v>44523</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -6989,19 +6977,19 @@
         <v>27</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N68" s="6" t="s">
         <v>1</v>
@@ -7025,7 +7013,7 @@
         <v>6</v>
       </c>
       <c r="U68" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V68" t="s">
         <v>0</v>
@@ -7036,7 +7024,7 @@
         <v>44526</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>12</v>
@@ -7057,7 +7045,7 @@
         <v>58</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>5</v>
@@ -7066,10 +7054,10 @@
         <v>31</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N69" s="6" t="s">
         <v>55</v>
@@ -7093,10 +7081,10 @@
         <v>0</v>
       </c>
       <c r="U69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V69" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
@@ -7104,7 +7092,7 @@
         <v>44530</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>12</v>
@@ -7125,7 +7113,7 @@
         <v>125</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>5</v>
@@ -7134,10 +7122,10 @@
         <v>31</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N70" s="6" t="s">
         <v>1</v>
@@ -7161,10 +7149,10 @@
         <v>4</v>
       </c>
       <c r="U70" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
@@ -7172,7 +7160,7 @@
         <v>44533</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>12</v>
@@ -7193,19 +7181,19 @@
         <v>72</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J71" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N71" s="6" t="s">
         <v>55</v>
@@ -7229,10 +7217,10 @@
         <v>18</v>
       </c>
       <c r="U71" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V71" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
@@ -7240,7 +7228,7 @@
         <v>44544</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>12</v>
@@ -7258,22 +7246,22 @@
         <v>21</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N72" s="6" t="s">
         <v>1</v>
@@ -7297,10 +7285,10 @@
         <v>19</v>
       </c>
       <c r="U72" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V72" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
@@ -7308,7 +7296,7 @@
         <v>44546</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>12</v>
@@ -7329,7 +7317,7 @@
         <v>125</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>5</v>
@@ -7338,10 +7326,10 @@
         <v>4</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N73" s="6" t="s">
         <v>24</v>
@@ -7365,10 +7353,10 @@
         <v>6</v>
       </c>
       <c r="U73" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V73" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
@@ -7394,22 +7382,22 @@
         <v>21</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N74" s="6" t="s">
         <v>142</v>
@@ -7433,10 +7421,10 @@
         <v>22</v>
       </c>
       <c r="U74" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="V74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
@@ -7465,7 +7453,7 @@
         <v>27</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>5</v>
@@ -7474,10 +7462,10 @@
         <v>4</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N75" s="6" t="s">
         <v>55</v>
@@ -7501,10 +7489,10 @@
         <v>5</v>
       </c>
       <c r="U75" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="V75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
@@ -7530,10 +7518,10 @@
         <v>21</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>5</v>
@@ -7542,10 +7530,10 @@
         <v>4</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N76" s="6" t="s">
         <v>142</v>
@@ -7569,10 +7557,10 @@
         <v>6</v>
       </c>
       <c r="U76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
@@ -7601,7 +7589,7 @@
         <v>130</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>5</v>
@@ -7610,10 +7598,10 @@
         <v>31</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N77" s="6" t="s">
         <v>15</v>
@@ -7637,10 +7625,10 @@
         <v>21</v>
       </c>
       <c r="U77" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="V77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
@@ -7666,10 +7654,10 @@
         <v>8</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J78" s="5" t="s">
         <v>5</v>
@@ -7678,10 +7666,10 @@
         <v>42</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N78" s="6" t="s">
         <v>51</v>
@@ -7705,10 +7693,10 @@
         <v>10</v>
       </c>
       <c r="U78" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="V78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
@@ -7734,10 +7722,10 @@
         <v>21</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>5</v>
@@ -7746,10 +7734,10 @@
         <v>4</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N79" s="6" t="s">
         <v>24</v>
@@ -7773,10 +7761,10 @@
         <v>15</v>
       </c>
       <c r="U79" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V79" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
@@ -7802,10 +7790,10 @@
         <v>8</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J80" s="5" t="s">
         <v>5</v>
@@ -7814,7 +7802,7 @@
         <v>31</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M80" s="6" t="s">
         <v>100</v>
@@ -7841,10 +7829,10 @@
         <v>20</v>
       </c>
       <c r="U80" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V80" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
@@ -7873,7 +7861,7 @@
         <v>63</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>5</v>
@@ -7882,7 +7870,7 @@
         <v>4</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M81" s="6" t="s">
         <v>100</v>
@@ -7909,10 +7897,10 @@
         <v>5</v>
       </c>
       <c r="U81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V81" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
@@ -7938,10 +7926,10 @@
         <v>21</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J82" s="5" t="s">
         <v>5</v>
@@ -7977,10 +7965,10 @@
         <v>22</v>
       </c>
       <c r="U82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V82" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
@@ -8006,10 +7994,10 @@
         <v>21</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>5</v>
@@ -8018,7 +8006,7 @@
         <v>31</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M83" s="6" t="s">
         <v>100</v>
@@ -8045,10 +8033,10 @@
         <v>21</v>
       </c>
       <c r="U83" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V83" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
@@ -8077,7 +8065,7 @@
         <v>27</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>5</v>
@@ -8086,7 +8074,7 @@
         <v>4</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M84" s="6" t="s">
         <v>100</v>
@@ -8113,7 +8101,7 @@
         <v>19</v>
       </c>
       <c r="U84" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V84" t="s">
         <v>0</v>
@@ -8142,10 +8130,10 @@
         <v>21</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J85" s="5" t="s">
         <v>5</v>
@@ -8154,10 +8142,10 @@
         <v>31</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N85" s="6" t="s">
         <v>142</v>
@@ -8181,10 +8169,10 @@
         <v>0</v>
       </c>
       <c r="U85" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V85" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
@@ -8210,10 +8198,10 @@
         <v>21</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>5</v>
@@ -8222,10 +8210,10 @@
         <v>42</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N86" s="6" t="s">
         <v>1</v>
@@ -8249,10 +8237,10 @@
         <v>21</v>
       </c>
       <c r="U86" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V86" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
@@ -8281,7 +8269,7 @@
         <v>63</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>5</v>
@@ -8290,10 +8278,10 @@
         <v>4</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N87" s="6" t="s">
         <v>1</v>
@@ -8317,10 +8305,10 @@
         <v>14</v>
       </c>
       <c r="U87" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V87" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
@@ -8349,7 +8337,7 @@
         <v>7</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>5</v>
@@ -8358,10 +8346,10 @@
         <v>4</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N88" s="6" t="s">
         <v>24</v>
@@ -8385,10 +8373,10 @@
         <v>5</v>
       </c>
       <c r="U88" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="V88" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
@@ -8414,10 +8402,10 @@
         <v>21</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>5</v>
@@ -8426,10 +8414,10 @@
         <v>31</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N89" s="6" t="s">
         <v>55</v>
@@ -8453,10 +8441,10 @@
         <v>6</v>
       </c>
       <c r="U89" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
@@ -8464,7 +8452,7 @@
         <v>44686</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>12</v>
@@ -8485,7 +8473,7 @@
         <v>130</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>5</v>
@@ -8494,10 +8482,10 @@
         <v>31</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N90" s="6" t="s">
         <v>24</v>
@@ -8521,10 +8509,10 @@
         <v>19</v>
       </c>
       <c r="U90" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V90" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
@@ -8532,7 +8520,7 @@
         <v>44690</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>12</v>
@@ -8550,10 +8538,10 @@
         <v>21</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>5</v>
@@ -8562,10 +8550,10 @@
         <v>42</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N91" s="6" t="s">
         <v>142</v>
@@ -8589,10 +8577,10 @@
         <v>0</v>
       </c>
       <c r="U91" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V91" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
@@ -8600,7 +8588,7 @@
         <v>44693</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>12</v>
@@ -8621,7 +8609,7 @@
         <v>125</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>5</v>
@@ -8630,10 +8618,10 @@
         <v>4</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N92" s="6" t="s">
         <v>24</v>
@@ -8657,10 +8645,10 @@
         <v>5</v>
       </c>
       <c r="U92" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="V92" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
@@ -8668,10 +8656,10 @@
         <v>44694</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>11</v>
@@ -8689,7 +8677,7 @@
         <v>84</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J93" s="5" t="s">
         <v>18</v>
@@ -8698,10 +8686,10 @@
         <v>106</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N93" s="6" t="s">
         <v>55</v>
@@ -8725,10 +8713,10 @@
         <v>4</v>
       </c>
       <c r="U93" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V93" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
@@ -8736,7 +8724,7 @@
         <v>44708</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>12</v>
@@ -8754,10 +8742,10 @@
         <v>21</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>5</v>
@@ -8766,10 +8754,10 @@
         <v>42</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N94" s="6" t="s">
         <v>55</v>
@@ -8793,10 +8781,10 @@
         <v>4</v>
       </c>
       <c r="U94" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V94" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
@@ -8804,7 +8792,7 @@
         <v>44710</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>12</v>
@@ -8825,7 +8813,7 @@
         <v>130</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>5</v>
@@ -8834,10 +8822,10 @@
         <v>31</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N95" s="6" t="s">
         <v>29</v>
@@ -8861,10 +8849,10 @@
         <v>1</v>
       </c>
       <c r="U95" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="V95" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
@@ -8872,7 +8860,7 @@
         <v>44714</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>12</v>
@@ -8890,10 +8878,10 @@
         <v>21</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J96" s="5" t="s">
         <v>5</v>
@@ -8902,7 +8890,7 @@
         <v>42</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M96" s="6" t="s">
         <v>93</v>
@@ -8929,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="U96" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V96" t="s">
         <v>60</v>
@@ -8940,7 +8928,7 @@
         <v>44723</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>12</v>
@@ -8961,7 +8949,7 @@
         <v>69</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>5</v>
@@ -8970,7 +8958,7 @@
         <v>4</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M97" s="6" t="s">
         <v>93</v>
@@ -8997,7 +8985,7 @@
         <v>22</v>
       </c>
       <c r="U97" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V97" t="s">
         <v>0</v>
@@ -9008,7 +8996,7 @@
         <v>44737</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>12</v>
@@ -9029,7 +9017,7 @@
         <v>111</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>5</v>
@@ -9038,7 +9026,7 @@
         <v>31</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M98" s="6" t="s">
         <v>93</v>
@@ -9065,10 +9053,10 @@
         <v>5</v>
       </c>
       <c r="U98" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V98" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
@@ -9076,10 +9064,10 @@
         <v>44737</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>11</v>
@@ -9097,7 +9085,7 @@
         <v>84</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J99" s="5" t="s">
         <v>18</v>
@@ -9106,7 +9094,7 @@
         <v>106</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M99" s="6" t="s">
         <v>93</v>
@@ -9133,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="U99" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V99" t="s">
         <v>92</v>
@@ -9144,7 +9132,7 @@
         <v>44743</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>12</v>
@@ -9165,7 +9153,7 @@
         <v>130</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>5</v>
@@ -9174,7 +9162,7 @@
         <v>31</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M100" s="6" t="s">
         <v>80</v>
@@ -9201,10 +9189,10 @@
         <v>22</v>
       </c>
       <c r="U100" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V100" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.3">
@@ -9230,10 +9218,10 @@
         <v>21</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>5</v>
@@ -9242,7 +9230,7 @@
         <v>4</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M101" s="6" t="s">
         <v>66</v>
@@ -9269,10 +9257,10 @@
         <v>6</v>
       </c>
       <c r="U101" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V101" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
@@ -9298,10 +9286,10 @@
         <v>21</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>5</v>
@@ -9310,7 +9298,7 @@
         <v>4</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M102" s="6" t="s">
         <v>66</v>
@@ -9337,10 +9325,10 @@
         <v>6</v>
       </c>
       <c r="U102" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="V102" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.3">
@@ -9366,10 +9354,10 @@
         <v>21</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>5</v>
@@ -9378,7 +9366,7 @@
         <v>42</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M103" s="6" t="s">
         <v>40</v>
@@ -9405,10 +9393,10 @@
         <v>1</v>
       </c>
       <c r="U103" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.3">
@@ -9434,10 +9422,10 @@
         <v>21</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J104" s="5" t="s">
         <v>5</v>
@@ -9446,7 +9434,7 @@
         <v>4</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M104" s="6" t="s">
         <v>40</v>
@@ -9473,10 +9461,10 @@
         <v>17</v>
       </c>
       <c r="U104" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.3">
@@ -9484,7 +9472,7 @@
         <v>44849</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>22</v>
@@ -9502,10 +9490,10 @@
         <v>21</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J105" s="12" t="s">
         <v>5</v>
@@ -9517,7 +9505,7 @@
         <v>52</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N105" s="6" t="s">
         <v>15</v>
@@ -9541,10 +9529,10 @@
         <v>14</v>
       </c>
       <c r="U105" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V105" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.3">
@@ -9552,7 +9540,7 @@
         <v>44849</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>22</v>
@@ -9570,10 +9558,10 @@
         <v>21</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J106" s="12" t="s">
         <v>5</v>
@@ -9585,7 +9573,7 @@
         <v>52</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N106" s="6" t="s">
         <v>15</v>
@@ -9609,10 +9597,10 @@
         <v>14</v>
       </c>
       <c r="U106" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V106" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.3">
@@ -9620,7 +9608,7 @@
         <v>44849</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>22</v>
@@ -9638,10 +9626,10 @@
         <v>21</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J107" s="12" t="s">
         <v>5</v>
@@ -9653,7 +9641,7 @@
         <v>52</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N107" s="6" t="s">
         <v>15</v>
@@ -9677,10 +9665,10 @@
         <v>14</v>
       </c>
       <c r="U107" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V107" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.3">
@@ -9688,7 +9676,7 @@
         <v>44864</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>12</v>
@@ -9706,10 +9694,10 @@
         <v>21</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J108" s="12" t="s">
         <v>5</v>
@@ -9718,10 +9706,10 @@
         <v>42</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N108" s="6" t="s">
         <v>29</v>
@@ -9745,7 +9733,7 @@
         <v>19</v>
       </c>
       <c r="U108" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V108" t="s">
         <v>92</v>
@@ -9756,7 +9744,7 @@
         <v>44875</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>12</v>
@@ -9777,7 +9765,7 @@
         <v>63</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J109" s="5" t="s">
         <v>5</v>
@@ -9789,7 +9777,7 @@
         <v>4</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N109" s="6" t="s">
         <v>24</v>
@@ -9813,10 +9801,10 @@
         <v>0</v>
       </c>
       <c r="U109" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="V109" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
@@ -9824,7 +9812,7 @@
         <v>44882</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>12</v>
@@ -9845,7 +9833,7 @@
         <v>44</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J110" s="5" t="s">
         <v>5</v>
@@ -9854,10 +9842,10 @@
         <v>42</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N110" s="6" t="s">
         <v>24</v>
@@ -9881,7 +9869,7 @@
         <v>4</v>
       </c>
       <c r="U110" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V110" t="s">
         <v>116</v>
@@ -9892,7 +9880,7 @@
         <v>44888</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>12</v>
@@ -9910,10 +9898,10 @@
         <v>21</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J111" s="5" t="s">
         <v>5</v>
@@ -9922,10 +9910,10 @@
         <v>31</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N111" s="6" t="s">
         <v>51</v>
@@ -9949,10 +9937,10 @@
         <v>23</v>
       </c>
       <c r="U111" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V111" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.3">
@@ -9960,7 +9948,7 @@
         <v>44892</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>12</v>
@@ -9978,10 +9966,10 @@
         <v>21</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J112" s="5" t="s">
         <v>5</v>
@@ -9990,10 +9978,10 @@
         <v>31</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N112" s="6" t="s">
         <v>29</v>
@@ -10017,10 +10005,10 @@
         <v>21</v>
       </c>
       <c r="U112" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V112" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.3">
@@ -10028,7 +10016,7 @@
         <v>44894</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>12</v>
@@ -10049,7 +10037,7 @@
         <v>69</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J113" s="5" t="s">
         <v>5</v>
@@ -10058,10 +10046,10 @@
         <v>4</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N113" s="6" t="s">
         <v>1</v>
@@ -10085,7 +10073,7 @@
         <v>19</v>
       </c>
       <c r="U113" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V113" t="s">
         <v>0</v>
@@ -10096,7 +10084,7 @@
         <v>44894</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>12</v>
@@ -10117,7 +10105,7 @@
         <v>98</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J114" s="5" t="s">
         <v>5</v>
@@ -10126,10 +10114,10 @@
         <v>31</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N114" s="6" t="s">
         <v>1</v>
@@ -10153,10 +10141,10 @@
         <v>17</v>
       </c>
       <c r="U114" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.3">
@@ -10164,7 +10152,7 @@
         <v>44908</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>12</v>
@@ -10182,10 +10170,10 @@
         <v>21</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J115" s="5" t="s">
         <v>5</v>
@@ -10194,10 +10182,10 @@
         <v>42</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N115" s="6" t="s">
         <v>1</v>
@@ -10218,10 +10206,10 @@
         <v>44908.659722222219</v>
       </c>
       <c r="T115" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U115" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V115" t="s">
         <v>92</v>
@@ -10232,7 +10220,7 @@
         <v>44917</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>12</v>
@@ -10250,10 +10238,10 @@
         <v>21</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J116" s="5" t="s">
         <v>5</v>
@@ -10262,10 +10250,10 @@
         <v>31</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N116" s="6" t="s">
         <v>24</v>
@@ -10286,13 +10274,13 @@
         <v>44917.206944444442</v>
       </c>
       <c r="T116" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U116" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V116" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.3">
@@ -10300,7 +10288,7 @@
         <v>44910</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>22</v>
@@ -10318,10 +10306,10 @@
         <v>21</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J117" s="5" t="s">
         <v>18</v>
@@ -10330,10 +10318,10 @@
         <v>17</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N117" s="6" t="s">
         <v>24</v>
@@ -10354,13 +10342,13 @@
         <v>44910.54583333333</v>
       </c>
       <c r="T117" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U117" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="V117" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.3">
@@ -10368,7 +10356,7 @@
         <v>44916</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>12</v>
@@ -10389,7 +10377,7 @@
         <v>7</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J118" s="5" t="s">
         <v>5</v>
@@ -10398,10 +10386,10 @@
         <v>4</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N118" s="6" t="s">
         <v>51</v>
@@ -10422,13 +10410,13 @@
         <v>44916.480555555558</v>
       </c>
       <c r="T118" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U118" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="V118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.3">
@@ -10457,7 +10445,7 @@
         <v>63</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J119" s="8" t="s">
         <v>5</v>
@@ -10466,10 +10454,10 @@
         <v>31</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N119" s="6" t="s">
         <v>142</v>
@@ -10493,10 +10481,10 @@
         <v>2</v>
       </c>
       <c r="U119" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V119" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.3">
@@ -10522,10 +10510,10 @@
         <v>21</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J120" s="8" t="s">
         <v>5</v>
@@ -10534,10 +10522,10 @@
         <v>31</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N120" s="6" t="s">
         <v>1</v>
@@ -10561,10 +10549,10 @@
         <v>16</v>
       </c>
       <c r="U120" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V120" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.3">
@@ -10593,7 +10581,7 @@
         <v>111</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J121" s="8" t="s">
         <v>5</v>
@@ -10602,10 +10590,10 @@
         <v>31</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M121" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N121" s="6" t="s">
         <v>142</v>
@@ -10629,10 +10617,10 @@
         <v>21</v>
       </c>
       <c r="U121" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V121" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.3">
@@ -10661,7 +10649,7 @@
         <v>63</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J122" s="8" t="s">
         <v>5</v>
@@ -10670,10 +10658,10 @@
         <v>4</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N122" s="6" t="s">
         <v>1</v>
@@ -10697,10 +10685,10 @@
         <v>21</v>
       </c>
       <c r="U122" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V122" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.3">
@@ -10726,10 +10714,10 @@
         <v>21</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J123" s="5" t="s">
         <v>5</v>
@@ -10738,10 +10726,10 @@
         <v>17</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M123" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N123" s="6" t="s">
         <v>51</v>
@@ -10765,10 +10753,10 @@
         <v>14</v>
       </c>
       <c r="U123" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V123" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.3">
@@ -10794,10 +10782,10 @@
         <v>8</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J124" s="5" t="s">
         <v>5</v>
@@ -10806,10 +10794,10 @@
         <v>42</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N124" s="6" t="s">
         <v>24</v>
@@ -10821,7 +10809,7 @@
         <v>5</v>
       </c>
       <c r="Q124" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R124" s="6">
         <v>-99.288995999999997</v>
@@ -10833,10 +10821,10 @@
         <v>8</v>
       </c>
       <c r="U124" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V124" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.3">
@@ -10862,10 +10850,10 @@
         <v>8</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J125" s="5" t="s">
         <v>5</v>
@@ -10874,7 +10862,7 @@
         <v>17</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>100</v>
@@ -10901,10 +10889,10 @@
         <v>20</v>
       </c>
       <c r="U125" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V125" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.3">
@@ -10933,7 +10921,7 @@
         <v>115</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J126" s="5" t="s">
         <v>5</v>
@@ -10942,7 +10930,7 @@
         <v>31</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M126" s="1" t="s">
         <v>100</v>
@@ -10969,10 +10957,10 @@
         <v>3</v>
       </c>
       <c r="U126" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V126" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.3">
@@ -11001,7 +10989,7 @@
         <v>115</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J127" s="5" t="s">
         <v>5</v>
@@ -11010,7 +10998,7 @@
         <v>31</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>100</v>
@@ -11037,10 +11025,10 @@
         <v>3</v>
       </c>
       <c r="U127" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V127" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.3">
@@ -11066,10 +11054,10 @@
         <v>8</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J128" s="5" t="s">
         <v>5</v>
@@ -11105,10 +11093,10 @@
         <v>14</v>
       </c>
       <c r="U128" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V128" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.3">
@@ -11146,7 +11134,7 @@
         <v>4</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>100</v>
@@ -11173,7 +11161,7 @@
         <v>18</v>
       </c>
       <c r="U129" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V129" t="s">
         <v>0</v>
@@ -11205,7 +11193,7 @@
         <v>95</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J130" s="5" t="s">
         <v>5</v>
@@ -11214,7 +11202,7 @@
         <v>17</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>100</v>
@@ -11241,10 +11229,10 @@
         <v>20</v>
       </c>
       <c r="U130" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V130" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.3">
@@ -11273,7 +11261,7 @@
         <v>130</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J131" s="5" t="s">
         <v>5</v>
@@ -11282,7 +11270,7 @@
         <v>42</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>100</v>
@@ -11309,10 +11297,10 @@
         <v>7</v>
       </c>
       <c r="U131" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V131" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.3">
@@ -11377,10 +11365,10 @@
         <v>2</v>
       </c>
       <c r="U132" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V132" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.3">
@@ -11445,7 +11433,7 @@
         <v>6</v>
       </c>
       <c r="U133" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V133" t="s">
         <v>141</v>
@@ -11513,10 +11501,10 @@
         <v>6</v>
       </c>
       <c r="U134" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V134" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.3">
@@ -11581,10 +11569,10 @@
         <v>22</v>
       </c>
       <c r="U135" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V135" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.3">
@@ -11649,10 +11637,10 @@
         <v>22</v>
       </c>
       <c r="U136" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V136" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.3">
@@ -11717,10 +11705,10 @@
         <v>18</v>
       </c>
       <c r="U137" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V137" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.3">
@@ -11785,10 +11773,10 @@
         <v>18</v>
       </c>
       <c r="U138" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V138" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.3">
@@ -11853,10 +11841,10 @@
         <v>21</v>
       </c>
       <c r="U139" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V139" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.3">
@@ -11921,10 +11909,10 @@
         <v>5</v>
       </c>
       <c r="U140" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V140" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.3">
@@ -11989,10 +11977,10 @@
         <v>0</v>
       </c>
       <c r="U141" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V141" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.3">
@@ -12057,10 +12045,10 @@
         <v>7</v>
       </c>
       <c r="U142" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V142" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.3">
@@ -12125,7 +12113,7 @@
         <v>7</v>
       </c>
       <c r="U143" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V143" t="s">
         <v>122</v>
@@ -12193,10 +12181,10 @@
         <v>21</v>
       </c>
       <c r="U144" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V144" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.3">
@@ -12261,7 +12249,7 @@
         <v>21</v>
       </c>
       <c r="U145" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V145" t="s">
         <v>116</v>
@@ -12329,7 +12317,7 @@
         <v>3</v>
       </c>
       <c r="U146" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V146" t="s">
         <v>112</v>
@@ -12397,7 +12385,7 @@
         <v>21</v>
       </c>
       <c r="U147" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V147" t="s">
         <v>108</v>
@@ -12465,10 +12453,10 @@
         <v>18</v>
       </c>
       <c r="U148" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V148" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.3">
@@ -12533,7 +12521,7 @@
         <v>8</v>
       </c>
       <c r="U149" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="V149" t="s">
         <v>99</v>
@@ -12601,7 +12589,7 @@
         <v>9</v>
       </c>
       <c r="U150" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V150" t="s">
         <v>92</v>
@@ -12669,7 +12657,7 @@
         <v>23</v>
       </c>
       <c r="U151" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V151" t="s">
         <v>92</v>
@@ -12737,10 +12725,10 @@
         <v>1</v>
       </c>
       <c r="U152" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V152" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.3">
@@ -12805,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="U153" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V153" t="s">
         <v>86</v>
@@ -12873,7 +12861,7 @@
         <v>23</v>
       </c>
       <c r="U154" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="V154" t="s">
         <v>79</v>
@@ -12941,7 +12929,7 @@
         <v>16</v>
       </c>
       <c r="U155" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V155" t="s">
         <v>0</v>
@@ -13009,7 +12997,7 @@
         <v>6</v>
       </c>
       <c r="U156" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V156" t="s">
         <v>73</v>
@@ -13077,10 +13065,10 @@
         <v>23</v>
       </c>
       <c r="U157" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V157" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.3">
@@ -13145,7 +13133,7 @@
         <v>15</v>
       </c>
       <c r="U158" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V158" t="s">
         <v>0</v>
@@ -13213,10 +13201,10 @@
         <v>5</v>
       </c>
       <c r="U159" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V159" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.3">
@@ -13281,10 +13269,10 @@
         <v>3</v>
       </c>
       <c r="U160" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V160" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.3">
@@ -13349,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="U161" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V161" t="s">
         <v>60</v>
@@ -13417,10 +13405,10 @@
         <v>0</v>
       </c>
       <c r="U162" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V162" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.3">
@@ -13485,10 +13473,10 @@
         <v>10</v>
       </c>
       <c r="U163" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="V163" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.3">
@@ -13553,10 +13541,10 @@
         <v>5</v>
       </c>
       <c r="U164" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V164" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.3">
@@ -13621,7 +13609,7 @@
         <v>22</v>
       </c>
       <c r="U165" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V165" t="s">
         <v>0</v>
@@ -13689,7 +13677,7 @@
         <v>22</v>
       </c>
       <c r="U166" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V166" t="s">
         <v>39</v>
@@ -13757,7 +13745,7 @@
         <v>12</v>
       </c>
       <c r="U167" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V167" t="s">
         <v>0</v>
@@ -13825,10 +13813,10 @@
         <v>2</v>
       </c>
       <c r="U168" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V168" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.3">
@@ -13893,10 +13881,10 @@
         <v>14</v>
       </c>
       <c r="U169" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V169" s="4" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.3">
@@ -13961,7 +13949,7 @@
         <v>15</v>
       </c>
       <c r="U170" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V170" s="4" t="s">
         <v>14</v>
@@ -14029,7 +14017,7 @@
         <v>16</v>
       </c>
       <c r="U171" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V171" t="s">
         <v>0</v>
